--- a/Archivos/archivo_65642c49a0771.xlsx
+++ b/Archivos/archivo_65642c49a0771.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irvin Garcia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lalo_\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE72A8AF-F15D-4F37-BB8A-B911527DA579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0E8091-F996-49F3-BAF4-1C2057381176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-2130" windowWidth="24240" windowHeight="13140" xr2:uid="{F57099C2-AB33-6146-AEB1-4812723612B3}"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{F57099C2-AB33-6146-AEB1-4812723612B3}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTUAL" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="187">
   <si>
     <t>NÚMERO</t>
   </si>
@@ -597,6 +597,9 @@
   </si>
   <si>
     <t>31E</t>
+  </si>
+  <si>
+    <t>Popo</t>
   </si>
 </sst>
 </file>
@@ -1814,25 +1817,40 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1844,25 +1862,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1901,17 +1904,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1922,28 +1916,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="174">
+  <dxfs count="156">
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
       <border>
@@ -1961,701 +1951,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2689,15 +1984,8 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
       <border>
@@ -2713,8 +2001,6 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2722,8 +2008,19 @@
         <color theme="0"/>
       </font>
       <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2759,17 +2056,6 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2812,11 +2098,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color theme="0"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2834,6 +2121,206 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
       <border>
@@ -2913,196 +2400,6 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -3590,6 +2887,40 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FF00B050"/>
           <bgColor rgb="FF00B050"/>
         </patternFill>
@@ -3639,16 +2970,28 @@
         <color theme="0"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
       <border>
@@ -3667,6 +3010,23 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3703,16 +3063,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3760,31 +3110,6 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -3876,6 +3201,65 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FF0070C0"/>
           <bgColor rgb="FF0070C0"/>
         </patternFill>
@@ -3900,9 +3284,241 @@
         <color theme="0"/>
       </font>
       <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3935,6 +3551,42 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FF00B050"/>
           <bgColor rgb="FF00B050"/>
         </patternFill>
@@ -3953,6 +3605,857 @@
           <color auto="1"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4019,8 +4522,8 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4055,17 +4558,6 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FF00B050"/>
           <bgColor rgb="FF00B050"/>
         </patternFill>
@@ -4086,491 +4578,9 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4580,43 +4590,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4645,196 +4619,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -5159,94 +4943,94 @@
   <dimension ref="A1:CM352"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="G150" sqref="G150"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="8.25" style="8" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="2.875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="23" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="8" customWidth="1"/>
-    <col min="8" max="8" width="2.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.25" style="8" customWidth="1"/>
-    <col min="10" max="10" width="2.875" style="8" customWidth="1"/>
-    <col min="11" max="12" width="8.875" style="8" customWidth="1"/>
-    <col min="13" max="13" width="2.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.08984375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="8.26953125" style="8" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="2.90625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="11.26953125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="2.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="2.90625" style="8" customWidth="1"/>
+    <col min="11" max="12" width="8.90625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="2.90625" style="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="42" style="8" customWidth="1"/>
-    <col min="15" max="15" width="2.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.375" style="8" customWidth="1"/>
-    <col min="17" max="17" width="2.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.75" style="8" customWidth="1"/>
-    <col min="19" max="19" width="2.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.375" style="8" customWidth="1"/>
-    <col min="21" max="21" width="2.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.75" style="8" customWidth="1"/>
-    <col min="23" max="23" width="2.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.75" style="8" customWidth="1"/>
-    <col min="25" max="25" width="2.875" style="8" customWidth="1"/>
+    <col min="15" max="15" width="2.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.36328125" style="8" customWidth="1"/>
+    <col min="17" max="17" width="2.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.7265625" style="8" customWidth="1"/>
+    <col min="19" max="19" width="2.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.36328125" style="8" customWidth="1"/>
+    <col min="21" max="21" width="2.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.7265625" style="8" customWidth="1"/>
+    <col min="23" max="23" width="2.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.7265625" style="8" customWidth="1"/>
+    <col min="25" max="25" width="2.90625" style="8" customWidth="1"/>
     <col min="26" max="26" width="15" style="23" customWidth="1"/>
-    <col min="27" max="27" width="2.875" style="8" customWidth="1"/>
-    <col min="28" max="28" width="9.125" style="23" customWidth="1"/>
-    <col min="29" max="29" width="2.875" style="23" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.375" style="23" customWidth="1"/>
-    <col min="31" max="31" width="2.875" style="23" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.375" style="23" customWidth="1"/>
-    <col min="33" max="33" width="2.875" style="23" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.375" style="8" customWidth="1"/>
-    <col min="35" max="35" width="2.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.375" style="8" customWidth="1"/>
-    <col min="37" max="37" width="2.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.375" style="8" customWidth="1"/>
-    <col min="39" max="39" width="2.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="6.625" style="8" customWidth="1"/>
-    <col min="41" max="41" width="2.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="6.5" style="8" customWidth="1"/>
-    <col min="43" max="43" width="5.25" style="8" customWidth="1"/>
-    <col min="44" max="44" width="52.625" style="8" customWidth="1"/>
-    <col min="45" max="45" width="54.375" style="8" customWidth="1"/>
-    <col min="46" max="46" width="10.875" style="8"/>
-    <col min="47" max="47" width="12.375" style="8" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="24.5" style="8" hidden="1" customWidth="1"/>
-    <col min="49" max="50" width="10.875" style="8" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="17.375" style="8" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="2.90625" style="8" customWidth="1"/>
+    <col min="28" max="28" width="9.08984375" style="23" customWidth="1"/>
+    <col min="29" max="29" width="2.90625" style="23" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.36328125" style="23" customWidth="1"/>
+    <col min="31" max="31" width="2.90625" style="23" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.36328125" style="23" customWidth="1"/>
+    <col min="33" max="33" width="2.90625" style="23" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.36328125" style="8" customWidth="1"/>
+    <col min="35" max="35" width="2.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.36328125" style="8" customWidth="1"/>
+    <col min="37" max="37" width="2.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.36328125" style="8" customWidth="1"/>
+    <col min="39" max="39" width="2.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6.6328125" style="8" customWidth="1"/>
+    <col min="41" max="41" width="2.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.453125" style="8" customWidth="1"/>
+    <col min="43" max="43" width="5.26953125" style="8" customWidth="1"/>
+    <col min="44" max="44" width="52.6328125" style="8" customWidth="1"/>
+    <col min="45" max="45" width="54.36328125" style="8" customWidth="1"/>
+    <col min="46" max="46" width="10.90625" style="8"/>
+    <col min="47" max="47" width="12.36328125" style="8" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="24.453125" style="8" hidden="1" customWidth="1"/>
+    <col min="49" max="50" width="10.90625" style="8" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="17.36328125" style="8" hidden="1" customWidth="1"/>
     <col min="52" max="52" width="13" style="8" hidden="1" customWidth="1"/>
-    <col min="53" max="56" width="5.625" style="8" hidden="1" customWidth="1"/>
+    <col min="53" max="56" width="5.6328125" style="8" hidden="1" customWidth="1"/>
     <col min="57" max="57" width="15" style="8" hidden="1" customWidth="1"/>
-    <col min="58" max="63" width="10.875" style="8" hidden="1" customWidth="1"/>
-    <col min="64" max="64" width="12.125" style="8" customWidth="1"/>
-    <col min="65" max="65" width="24.5" style="8" customWidth="1"/>
-    <col min="66" max="67" width="10.875" style="8"/>
+    <col min="58" max="63" width="10.90625" style="8" hidden="1" customWidth="1"/>
+    <col min="64" max="64" width="12.08984375" style="8" customWidth="1"/>
+    <col min="65" max="65" width="24.453125" style="8" customWidth="1"/>
+    <col min="66" max="67" width="10.90625" style="8"/>
     <col min="68" max="68" width="11" style="8"/>
-    <col min="69" max="69" width="43.375" style="8" customWidth="1"/>
-    <col min="70" max="70" width="15.375" style="8" customWidth="1"/>
-    <col min="71" max="71" width="5.625" style="8" customWidth="1"/>
-    <col min="72" max="72" width="7.625" style="8" customWidth="1"/>
-    <col min="73" max="73" width="6.625" style="8" customWidth="1"/>
-    <col min="74" max="74" width="5.625" style="8" customWidth="1"/>
-    <col min="75" max="75" width="16.5" style="8" customWidth="1"/>
-    <col min="76" max="79" width="10.875" style="8"/>
-    <col min="80" max="80" width="16.125" style="8" customWidth="1"/>
-    <col min="81" max="81" width="10.875" style="8"/>
-    <col min="82" max="82" width="14.75" style="8" customWidth="1"/>
+    <col min="69" max="69" width="43.36328125" style="8" customWidth="1"/>
+    <col min="70" max="70" width="15.36328125" style="8" customWidth="1"/>
+    <col min="71" max="71" width="5.6328125" style="8" customWidth="1"/>
+    <col min="72" max="72" width="7.6328125" style="8" customWidth="1"/>
+    <col min="73" max="73" width="6.6328125" style="8" customWidth="1"/>
+    <col min="74" max="74" width="5.6328125" style="8" customWidth="1"/>
+    <col min="75" max="75" width="16.453125" style="8" customWidth="1"/>
+    <col min="76" max="79" width="10.90625" style="8"/>
+    <col min="80" max="80" width="16.08984375" style="8" customWidth="1"/>
+    <col min="81" max="81" width="10.90625" style="8"/>
+    <col min="82" max="82" width="14.7265625" style="8" customWidth="1"/>
     <col min="83" max="83" width="11" style="8"/>
-    <col min="84" max="84" width="34.625" style="8" customWidth="1"/>
-    <col min="85" max="85" width="13.5" style="8" customWidth="1"/>
-    <col min="86" max="88" width="10.875" style="8"/>
-    <col min="89" max="91" width="10.875" style="9"/>
+    <col min="84" max="84" width="34.6328125" style="8" customWidth="1"/>
+    <col min="85" max="85" width="13.453125" style="8" customWidth="1"/>
+    <col min="86" max="88" width="10.90625" style="8"/>
+    <col min="89" max="91" width="10.90625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" s="33" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:91" s="33" customFormat="1" ht="36.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="26"/>
       <c r="B1" s="27" t="s">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="C1" s="126" t="s">
         <v>150</v>
@@ -5258,63 +5042,63 @@
       <c r="F1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="157" t="s">
+      <c r="G1" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157"/>
-      <c r="M1" s="157"/>
-      <c r="N1" s="149" t="s">
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="150"/>
-      <c r="P1" s="149" t="s">
+      <c r="O1" s="149"/>
+      <c r="P1" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="150"/>
-      <c r="R1" s="157" t="s">
+      <c r="Q1" s="149"/>
+      <c r="R1" s="148" t="s">
         <v>123</v>
       </c>
-      <c r="S1" s="157"/>
-      <c r="T1" s="157"/>
-      <c r="U1" s="157"/>
-      <c r="V1" s="157"/>
-      <c r="W1" s="157"/>
-      <c r="X1" s="157"/>
-      <c r="Y1" s="157"/>
-      <c r="Z1" s="157" t="s">
+      <c r="S1" s="148"/>
+      <c r="T1" s="148"/>
+      <c r="U1" s="148"/>
+      <c r="V1" s="148"/>
+      <c r="W1" s="148"/>
+      <c r="X1" s="148"/>
+      <c r="Y1" s="148"/>
+      <c r="Z1" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="157"/>
-      <c r="AB1" s="149" t="s">
+      <c r="AA1" s="148"/>
+      <c r="AB1" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="AC1" s="156"/>
-      <c r="AD1" s="156"/>
-      <c r="AE1" s="156"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="156"/>
-      <c r="AH1" s="158" t="s">
+      <c r="AC1" s="147"/>
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="147"/>
+      <c r="AG1" s="147"/>
+      <c r="AH1" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="157"/>
-      <c r="AJ1" s="157"/>
-      <c r="AK1" s="159"/>
-      <c r="AL1" s="156" t="s">
+      <c r="AI1" s="148"/>
+      <c r="AJ1" s="148"/>
+      <c r="AK1" s="153"/>
+      <c r="AL1" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="AM1" s="150"/>
-      <c r="AN1" s="149" t="s">
+      <c r="AM1" s="149"/>
+      <c r="AN1" s="146" t="s">
         <v>76</v>
       </c>
-      <c r="AO1" s="150"/>
-      <c r="AP1" s="149" t="s">
+      <c r="AO1" s="149"/>
+      <c r="AP1" s="146" t="s">
         <v>109</v>
       </c>
-      <c r="AQ1" s="150"/>
+      <c r="AQ1" s="149"/>
       <c r="AR1" s="49" t="s">
         <v>11</v>
       </c>
@@ -5328,33 +5112,33 @@
       <c r="AV1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="AW1" s="160" t="s">
+      <c r="AW1" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="AX1" s="160"/>
+      <c r="AX1" s="154"/>
       <c r="AY1" s="30" t="s">
         <v>4</v>
       </c>
       <c r="AZ1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="BA1" s="160" t="s">
+      <c r="BA1" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="BB1" s="160"/>
-      <c r="BC1" s="160"/>
-      <c r="BD1" s="160"/>
+      <c r="BB1" s="154"/>
+      <c r="BC1" s="154"/>
+      <c r="BD1" s="154"/>
       <c r="BE1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="BF1" s="160" t="s">
+      <c r="BF1" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="BG1" s="160"/>
-      <c r="BH1" s="160" t="s">
+      <c r="BG1" s="154"/>
+      <c r="BH1" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="BI1" s="160"/>
+      <c r="BI1" s="154"/>
       <c r="BJ1" s="31" t="s">
         <v>10</v>
       </c>
@@ -5365,34 +5149,34 @@
       <c r="BM1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="BN1" s="151" t="s">
+      <c r="BN1" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="BO1" s="152"/>
-      <c r="BP1" s="153"/>
+      <c r="BO1" s="157"/>
+      <c r="BP1" s="158"/>
       <c r="BQ1" s="58" t="s">
         <v>4</v>
       </c>
       <c r="BR1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="BS1" s="148" t="s">
+      <c r="BS1" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="BT1" s="148"/>
-      <c r="BU1" s="148"/>
-      <c r="BV1" s="148"/>
+      <c r="BT1" s="155"/>
+      <c r="BU1" s="155"/>
+      <c r="BV1" s="155"/>
       <c r="BW1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="BX1" s="148" t="s">
+      <c r="BX1" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="BY1" s="148"/>
-      <c r="BZ1" s="148" t="s">
+      <c r="BY1" s="155"/>
+      <c r="BZ1" s="155" t="s">
         <v>9</v>
       </c>
-      <c r="CA1" s="148"/>
+      <c r="CA1" s="155"/>
       <c r="CB1" s="59" t="s">
         <v>10</v>
       </c>
@@ -5416,7 +5200,7 @@
       <c r="CL1" s="24"/>
       <c r="CM1" s="24"/>
     </row>
-    <row r="2" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="36"/>
       <c r="B2" s="129">
         <v>1</v>
@@ -5658,10 +5442,10 @@
         <v/>
       </c>
       <c r="CE2" s="8"/>
-      <c r="CF2" s="144" t="s">
+      <c r="CF2" s="150" t="s">
         <v>42</v>
       </c>
-      <c r="CG2" s="145"/>
+      <c r="CG2" s="151"/>
       <c r="CH2" s="8"/>
       <c r="CI2" s="8"/>
       <c r="CJ2" s="8"/>
@@ -5669,7 +5453,7 @@
       <c r="CL2" s="9"/>
       <c r="CM2" s="9"/>
     </row>
-    <row r="3" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="36"/>
       <c r="B3" s="129">
         <v>2</v>
@@ -5913,7 +5697,7 @@
       <c r="CL3" s="9"/>
       <c r="CM3" s="9"/>
     </row>
-    <row r="4" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="36"/>
       <c r="B4" s="129">
         <v>3</v>
@@ -6104,7 +5888,7 @@
       <c r="CL4" s="9"/>
       <c r="CM4" s="9"/>
     </row>
-    <row r="5" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="36"/>
       <c r="B5" s="129">
         <v>4</v>
@@ -6295,7 +6079,7 @@
       <c r="CL5" s="9"/>
       <c r="CM5" s="9"/>
     </row>
-    <row r="6" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="36"/>
       <c r="B6" s="129">
         <v>5</v>
@@ -6515,7 +6299,7 @@
       <c r="CL6" s="9"/>
       <c r="CM6" s="9"/>
     </row>
-    <row r="7" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="36"/>
       <c r="B7" s="129">
         <v>6</v>
@@ -6690,7 +6474,7 @@
       <c r="CL7" s="9"/>
       <c r="CM7" s="9"/>
     </row>
-    <row r="8" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="36"/>
       <c r="B8" s="129">
         <v>7</v>
@@ -6914,7 +6698,7 @@
       <c r="CL8" s="9"/>
       <c r="CM8" s="9"/>
     </row>
-    <row r="9" spans="1:91" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:91" s="2" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="36"/>
       <c r="B9" s="129">
         <v>8</v>
@@ -7081,7 +6865,7 @@
       <c r="CL9" s="9"/>
       <c r="CM9" s="9"/>
     </row>
-    <row r="10" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="36"/>
       <c r="B10" s="129">
         <v>9</v>
@@ -7238,10 +7022,10 @@
         <v/>
       </c>
       <c r="CE10" s="8"/>
-      <c r="CF10" s="144" t="s">
+      <c r="CF10" s="150" t="s">
         <v>45</v>
       </c>
-      <c r="CG10" s="145"/>
+      <c r="CG10" s="151"/>
       <c r="CH10" s="8"/>
       <c r="CI10" s="8"/>
       <c r="CJ10" s="8"/>
@@ -7249,7 +7033,7 @@
       <c r="CL10" s="9"/>
       <c r="CM10" s="9"/>
     </row>
-    <row r="11" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="36"/>
       <c r="B11" s="129">
         <v>10</v>
@@ -7477,7 +7261,7 @@
       <c r="CL11" s="9"/>
       <c r="CM11" s="9"/>
     </row>
-    <row r="12" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="36"/>
       <c r="B12" s="129">
         <v>11</v>
@@ -7693,7 +7477,7 @@
       <c r="CL12" s="9"/>
       <c r="CM12" s="9"/>
     </row>
-    <row r="13" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="36"/>
       <c r="B13" s="129">
         <v>12</v>
@@ -7872,7 +7656,7 @@
       <c r="CL13" s="9"/>
       <c r="CM13" s="9"/>
     </row>
-    <row r="14" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="36"/>
       <c r="B14" s="129">
         <v>13</v>
@@ -8084,7 +7868,7 @@
       <c r="CL14" s="9"/>
       <c r="CM14" s="9"/>
     </row>
-    <row r="15" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="36"/>
       <c r="B15" s="126">
         <v>14</v>
@@ -8296,7 +8080,7 @@
       <c r="CL15" s="9"/>
       <c r="CM15" s="9"/>
     </row>
-    <row r="16" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="36"/>
       <c r="B16" s="126">
         <v>15</v>
@@ -8508,7 +8292,7 @@
       <c r="CL16" s="9"/>
       <c r="CM16" s="9"/>
     </row>
-    <row r="17" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="36"/>
       <c r="B17" s="126">
         <v>16</v>
@@ -8691,7 +8475,7 @@
       <c r="CL17" s="9"/>
       <c r="CM17" s="9"/>
     </row>
-    <row r="18" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="36"/>
       <c r="B18" s="128">
         <v>17</v>
@@ -8903,7 +8687,7 @@
       <c r="CL18" s="9"/>
       <c r="CM18" s="9"/>
     </row>
-    <row r="19" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="36"/>
       <c r="B19" s="126">
         <v>18</v>
@@ -9115,7 +8899,7 @@
       <c r="CL19" s="9"/>
       <c r="CM19" s="9"/>
     </row>
-    <row r="20" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="36"/>
       <c r="B20" s="126">
         <v>19</v>
@@ -9327,7 +9111,7 @@
       <c r="CL20" s="9"/>
       <c r="CM20" s="9"/>
     </row>
-    <row r="21" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="36"/>
       <c r="B21" s="126">
         <v>20</v>
@@ -9539,7 +9323,7 @@
       <c r="CL21" s="9"/>
       <c r="CM21" s="9"/>
     </row>
-    <row r="22" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="36"/>
       <c r="B22" s="126">
         <f>B21+1</f>
@@ -9732,7 +9516,7 @@
       <c r="CL22" s="9"/>
       <c r="CM22" s="9"/>
     </row>
-    <row r="23" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="36"/>
       <c r="B23" s="126">
         <f t="shared" ref="B23:B81" si="32">B22+1</f>
@@ -9953,7 +9737,7 @@
       <c r="CL23" s="9"/>
       <c r="CM23" s="9"/>
     </row>
-    <row r="24" spans="1:91" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:91" s="2" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="36"/>
       <c r="B24" s="126">
         <f t="shared" si="32"/>
@@ -10151,7 +9935,7 @@
       <c r="CL24" s="9"/>
       <c r="CM24" s="9"/>
     </row>
-    <row r="25" spans="1:91" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:91" s="2" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="36"/>
       <c r="B25" s="126">
         <f t="shared" si="32"/>
@@ -10386,7 +10170,7 @@
       <c r="CL25" s="9"/>
       <c r="CM25" s="9"/>
     </row>
-    <row r="26" spans="1:91" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:91" s="2" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="36"/>
       <c r="B26" s="126">
         <f t="shared" si="32"/>
@@ -10603,7 +10387,7 @@
       <c r="CL26" s="9"/>
       <c r="CM26" s="9"/>
     </row>
-    <row r="27" spans="1:91" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:91" s="2" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="36"/>
       <c r="B27" s="126">
         <f t="shared" si="32"/>
@@ -10797,7 +10581,7 @@
       <c r="CL27" s="9"/>
       <c r="CM27" s="9"/>
     </row>
-    <row r="28" spans="1:91" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:91" s="2" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="36"/>
       <c r="B28" s="126">
         <f t="shared" si="32"/>
@@ -11009,7 +10793,7 @@
       <c r="CL28" s="9"/>
       <c r="CM28" s="9"/>
     </row>
-    <row r="29" spans="1:91" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:91" s="2" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="36"/>
       <c r="B29" s="126">
         <f t="shared" si="32"/>
@@ -11208,7 +10992,7 @@
       <c r="CL29" s="9"/>
       <c r="CM29" s="9"/>
     </row>
-    <row r="30" spans="1:91" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:91" s="2" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="36"/>
       <c r="B30" s="126">
         <f t="shared" si="32"/>
@@ -11389,7 +11173,7 @@
       <c r="CL30" s="9"/>
       <c r="CM30" s="9"/>
     </row>
-    <row r="31" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="36"/>
       <c r="B31" s="126">
         <f t="shared" si="32"/>
@@ -11568,10 +11352,10 @@
         <v/>
       </c>
       <c r="CE31" s="8"/>
-      <c r="CF31" s="144" t="s">
+      <c r="CF31" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="CG31" s="145"/>
+      <c r="CG31" s="151"/>
       <c r="CH31" s="8"/>
       <c r="CI31" s="8"/>
       <c r="CJ31" s="8"/>
@@ -11579,7 +11363,7 @@
       <c r="CL31" s="9"/>
       <c r="CM31" s="9"/>
     </row>
-    <row r="32" spans="1:91" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="36" t="s">
         <v>185</v>
       </c>
@@ -11760,7 +11544,7 @@
       <c r="CL32" s="9"/>
       <c r="CM32" s="9"/>
     </row>
-    <row r="33" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="36"/>
       <c r="B33" s="126">
         <f t="shared" si="32"/>
@@ -11931,7 +11715,7 @@
       <c r="CL33" s="9"/>
       <c r="CM33" s="9"/>
     </row>
-    <row r="34" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="36"/>
       <c r="B34" s="126">
         <f t="shared" si="32"/>
@@ -12098,7 +11882,7 @@
       <c r="CL34" s="9"/>
       <c r="CM34" s="9"/>
     </row>
-    <row r="35" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="36"/>
       <c r="B35" s="126">
         <f t="shared" si="32"/>
@@ -12269,7 +12053,7 @@
       <c r="CL35" s="9"/>
       <c r="CM35" s="9"/>
     </row>
-    <row r="36" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="36"/>
       <c r="B36" s="126">
         <f t="shared" si="32"/>
@@ -12440,7 +12224,7 @@
       <c r="CL36" s="9"/>
       <c r="CM36" s="9"/>
     </row>
-    <row r="37" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="36"/>
       <c r="B37" s="126">
         <f t="shared" si="32"/>
@@ -12603,7 +12387,7 @@
       <c r="CL37" s="9"/>
       <c r="CM37" s="9"/>
     </row>
-    <row r="38" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="36"/>
       <c r="B38" s="126">
         <f t="shared" si="32"/>
@@ -12770,7 +12554,7 @@
       <c r="CL38" s="9"/>
       <c r="CM38" s="9"/>
     </row>
-    <row r="39" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="36"/>
       <c r="B39" s="126">
         <f t="shared" si="32"/>
@@ -12941,7 +12725,7 @@
       <c r="CL39" s="9"/>
       <c r="CM39" s="9"/>
     </row>
-    <row r="40" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="36"/>
       <c r="B40" s="126">
         <f t="shared" si="32"/>
@@ -13108,7 +12892,7 @@
       <c r="CL40" s="9"/>
       <c r="CM40" s="9"/>
     </row>
-    <row r="41" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="36"/>
       <c r="B41" s="126">
         <f t="shared" si="32"/>
@@ -13271,7 +13055,7 @@
       <c r="CL41" s="9"/>
       <c r="CM41" s="9"/>
     </row>
-    <row r="42" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="36"/>
       <c r="B42" s="126">
         <f t="shared" si="32"/>
@@ -13438,7 +13222,7 @@
       <c r="CL42" s="9"/>
       <c r="CM42" s="9"/>
     </row>
-    <row r="43" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="36"/>
       <c r="B43" s="126">
         <f t="shared" si="32"/>
@@ -13613,7 +13397,7 @@
       <c r="CL43" s="9"/>
       <c r="CM43" s="9"/>
     </row>
-    <row r="44" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="36"/>
       <c r="B44" s="126">
         <f t="shared" si="32"/>
@@ -13792,7 +13576,7 @@
       <c r="CL44" s="9"/>
       <c r="CM44" s="9"/>
     </row>
-    <row r="45" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="36"/>
       <c r="B45" s="126">
         <f t="shared" si="32"/>
@@ -13955,7 +13739,7 @@
       <c r="CL45" s="9"/>
       <c r="CM45" s="9"/>
     </row>
-    <row r="46" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="36"/>
       <c r="B46" s="126">
         <f t="shared" si="32"/>
@@ -14118,7 +13902,7 @@
       <c r="CL46" s="9"/>
       <c r="CM46" s="9"/>
     </row>
-    <row r="47" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="36"/>
       <c r="B47" s="126">
         <f t="shared" si="32"/>
@@ -14285,7 +14069,7 @@
       <c r="CL47" s="9"/>
       <c r="CM47" s="9"/>
     </row>
-    <row r="48" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="36"/>
       <c r="B48" s="126">
         <f t="shared" si="32"/>
@@ -14448,7 +14232,7 @@
       <c r="CL48" s="9"/>
       <c r="CM48" s="9"/>
     </row>
-    <row r="49" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="36"/>
       <c r="B49" s="126">
         <f t="shared" si="32"/>
@@ -14611,7 +14395,7 @@
       <c r="CL49" s="9"/>
       <c r="CM49" s="9"/>
     </row>
-    <row r="50" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="36"/>
       <c r="B50" s="126">
         <f t="shared" si="32"/>
@@ -14790,7 +14574,7 @@
       <c r="CL50" s="9"/>
       <c r="CM50" s="9"/>
     </row>
-    <row r="51" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="36"/>
       <c r="B51" s="126">
         <f t="shared" si="32"/>
@@ -14953,7 +14737,7 @@
       <c r="CL51" s="9"/>
       <c r="CM51" s="9"/>
     </row>
-    <row r="52" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="36"/>
       <c r="B52" s="126">
         <f t="shared" si="32"/>
@@ -15132,7 +14916,7 @@
       <c r="CL52" s="9"/>
       <c r="CM52" s="9"/>
     </row>
-    <row r="53" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="36"/>
       <c r="B53" s="126">
         <f t="shared" si="32"/>
@@ -15299,7 +15083,7 @@
       <c r="CL53" s="9"/>
       <c r="CM53" s="9"/>
     </row>
-    <row r="54" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="36"/>
       <c r="B54" s="126">
         <f t="shared" si="32"/>
@@ -15462,7 +15246,7 @@
       <c r="CL54" s="9"/>
       <c r="CM54" s="9"/>
     </row>
-    <row r="55" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="36"/>
       <c r="B55" s="126">
         <f t="shared" si="32"/>
@@ -15629,7 +15413,7 @@
       <c r="CL55" s="9"/>
       <c r="CM55" s="9"/>
     </row>
-    <row r="56" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="36"/>
       <c r="B56" s="126">
         <f t="shared" si="32"/>
@@ -15792,7 +15576,7 @@
       <c r="CL56" s="9"/>
       <c r="CM56" s="9"/>
     </row>
-    <row r="57" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="36"/>
       <c r="B57" s="126">
         <f t="shared" si="32"/>
@@ -15955,7 +15739,7 @@
       <c r="CL57" s="9"/>
       <c r="CM57" s="9"/>
     </row>
-    <row r="58" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="36"/>
       <c r="B58" s="126">
         <f t="shared" si="32"/>
@@ -16118,7 +15902,7 @@
       <c r="CL58" s="9"/>
       <c r="CM58" s="9"/>
     </row>
-    <row r="59" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="36"/>
       <c r="B59" s="126">
         <f t="shared" si="32"/>
@@ -16303,7 +16087,7 @@
       <c r="CL59" s="9"/>
       <c r="CM59" s="9"/>
     </row>
-    <row r="60" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="36"/>
       <c r="B60" s="126">
         <f t="shared" si="32"/>
@@ -16488,7 +16272,7 @@
       <c r="CL60" s="9"/>
       <c r="CM60" s="9"/>
     </row>
-    <row r="61" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="36"/>
       <c r="B61" s="126">
         <f t="shared" si="32"/>
@@ -16663,7 +16447,7 @@
       <c r="CL61" s="9"/>
       <c r="CM61" s="9"/>
     </row>
-    <row r="62" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="36"/>
       <c r="B62" s="126">
         <f t="shared" si="32"/>
@@ -16826,7 +16610,7 @@
       <c r="CL62" s="9"/>
       <c r="CM62" s="9"/>
     </row>
-    <row r="63" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="36"/>
       <c r="B63" s="126">
         <f t="shared" si="32"/>
@@ -16997,7 +16781,7 @@
       <c r="CL63" s="9"/>
       <c r="CM63" s="9"/>
     </row>
-    <row r="64" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="36"/>
       <c r="B64" s="126">
         <f t="shared" si="32"/>
@@ -17164,7 +16948,7 @@
       <c r="CL64" s="9"/>
       <c r="CM64" s="9"/>
     </row>
-    <row r="65" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="36"/>
       <c r="B65" s="126">
         <f t="shared" si="32"/>
@@ -17327,7 +17111,7 @@
       <c r="CL65" s="9"/>
       <c r="CM65" s="9"/>
     </row>
-    <row r="66" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="36"/>
       <c r="B66" s="126">
         <f t="shared" si="32"/>
@@ -17490,7 +17274,7 @@
       <c r="CL66" s="9"/>
       <c r="CM66" s="9"/>
     </row>
-    <row r="67" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="36"/>
       <c r="B67" s="126">
         <f t="shared" si="32"/>
@@ -17653,7 +17437,7 @@
       <c r="CL67" s="9"/>
       <c r="CM67" s="9"/>
     </row>
-    <row r="68" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="36"/>
       <c r="B68" s="126">
         <f t="shared" si="32"/>
@@ -17816,7 +17600,7 @@
       <c r="CL68" s="9"/>
       <c r="CM68" s="9"/>
     </row>
-    <row r="69" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="36"/>
       <c r="B69" s="126">
         <f t="shared" si="32"/>
@@ -17979,7 +17763,7 @@
       <c r="CL69" s="9"/>
       <c r="CM69" s="9"/>
     </row>
-    <row r="70" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="36"/>
       <c r="B70" s="126">
         <f t="shared" si="32"/>
@@ -18142,7 +17926,7 @@
       <c r="CL70" s="9"/>
       <c r="CM70" s="9"/>
     </row>
-    <row r="71" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="36"/>
       <c r="B71" s="126">
         <f t="shared" si="32"/>
@@ -18305,7 +18089,7 @@
       <c r="CL71" s="9"/>
       <c r="CM71" s="9"/>
     </row>
-    <row r="72" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="36"/>
       <c r="B72" s="126">
         <f t="shared" si="32"/>
@@ -18468,7 +18252,7 @@
       <c r="CL72" s="9"/>
       <c r="CM72" s="9"/>
     </row>
-    <row r="73" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="36"/>
       <c r="B73" s="126">
         <f t="shared" si="32"/>
@@ -18631,12 +18415,9 @@
       <c r="CL73" s="9"/>
       <c r="CM73" s="9"/>
     </row>
-    <row r="74" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="36"/>
-      <c r="B74" s="126">
-        <f t="shared" si="32"/>
-        <v>73</v>
-      </c>
+      <c r="B74" s="126"/>
       <c r="C74" s="126" t="s">
         <v>150</v>
       </c>
@@ -18710,7 +18491,7 @@
       <c r="BK74" s="8"/>
       <c r="BL74" s="66">
         <f t="shared" si="33"/>
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="BM74" s="66" t="str">
         <f t="shared" si="34"/>
@@ -18794,11 +18575,11 @@
       <c r="CL74" s="9"/>
       <c r="CM74" s="9"/>
     </row>
-    <row r="75" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="36"/>
       <c r="B75" s="126">
         <f t="shared" si="32"/>
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="C75" s="134" t="s">
         <v>149</v>
@@ -18873,7 +18654,7 @@
       <c r="BK75" s="8"/>
       <c r="BL75" s="66">
         <f t="shared" si="33"/>
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="BM75" s="66" t="str">
         <f t="shared" si="34"/>
@@ -18957,11 +18738,11 @@
       <c r="CL75" s="9"/>
       <c r="CM75" s="9"/>
     </row>
-    <row r="76" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="36"/>
       <c r="B76" s="126">
         <f t="shared" si="32"/>
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="C76" s="134" t="s">
         <v>149</v>
@@ -19044,7 +18825,7 @@
       <c r="BK76" s="8"/>
       <c r="BL76" s="66">
         <f t="shared" si="33"/>
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="BM76" s="66" t="str">
         <f t="shared" si="34"/>
@@ -19128,11 +18909,11 @@
       <c r="CL76" s="9"/>
       <c r="CM76" s="9"/>
     </row>
-    <row r="77" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="36"/>
       <c r="B77" s="126">
         <f t="shared" si="32"/>
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="C77" s="134" t="s">
         <v>149</v>
@@ -19215,7 +18996,7 @@
       <c r="BK77" s="8"/>
       <c r="BL77" s="66">
         <f t="shared" si="33"/>
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="BM77" s="66" t="str">
         <f t="shared" si="34"/>
@@ -19299,7 +19080,7 @@
       <c r="CL77" s="9"/>
       <c r="CM77" s="9"/>
     </row>
-    <row r="78" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="36"/>
       <c r="B78" s="126">
         <v>82</v>
@@ -19465,7 +19246,7 @@
       <c r="CL78" s="9"/>
       <c r="CM78" s="9"/>
     </row>
-    <row r="79" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="36"/>
       <c r="B79" s="126">
         <f>B78+1</f>
@@ -19628,7 +19409,7 @@
       <c r="CL79" s="9"/>
       <c r="CM79" s="9"/>
     </row>
-    <row r="80" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="36"/>
       <c r="B80" s="126">
         <f>B79+1</f>
@@ -19795,7 +19576,7 @@
       <c r="CL80" s="9"/>
       <c r="CM80" s="9"/>
     </row>
-    <row r="81" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="36"/>
       <c r="B81" s="126">
         <f t="shared" si="32"/>
@@ -19958,7 +19739,7 @@
       <c r="CL81" s="9"/>
       <c r="CM81" s="9"/>
     </row>
-    <row r="82" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="36"/>
       <c r="B82" s="126">
         <f t="shared" ref="B82:B102" si="52">B81+1</f>
@@ -20129,7 +19910,7 @@
       <c r="CL82" s="9"/>
       <c r="CM82" s="9"/>
     </row>
-    <row r="83" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="36"/>
       <c r="B83" s="126">
         <f t="shared" si="52"/>
@@ -20292,7 +20073,7 @@
       <c r="CL83" s="9"/>
       <c r="CM83" s="9"/>
     </row>
-    <row r="84" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="36"/>
       <c r="B84" s="126">
         <f t="shared" si="52"/>
@@ -20459,7 +20240,7 @@
       <c r="CL84" s="9"/>
       <c r="CM84" s="9"/>
     </row>
-    <row r="85" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="36"/>
       <c r="B85" s="126">
         <f t="shared" si="52"/>
@@ -20622,7 +20403,7 @@
       <c r="CL85" s="9"/>
       <c r="CM85" s="9"/>
     </row>
-    <row r="86" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="36"/>
       <c r="B86" s="126">
         <v>102</v>
@@ -20800,7 +20581,7 @@
       <c r="CL86" s="9"/>
       <c r="CM86" s="9"/>
     </row>
-    <row r="87" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="36"/>
       <c r="B87" s="126">
         <f t="shared" si="52"/>
@@ -20975,7 +20756,7 @@
       <c r="CL87" s="9"/>
       <c r="CM87" s="9"/>
     </row>
-    <row r="88" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="36"/>
       <c r="B88" s="126">
         <f t="shared" si="52"/>
@@ -21138,7 +20919,7 @@
       <c r="CL88" s="9"/>
       <c r="CM88" s="9"/>
     </row>
-    <row r="89" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="36"/>
       <c r="B89" s="126">
         <f t="shared" si="52"/>
@@ -21301,7 +21082,7 @@
       <c r="CL89" s="9"/>
       <c r="CM89" s="9"/>
     </row>
-    <row r="90" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="36"/>
       <c r="B90" s="126">
         <f t="shared" si="52"/>
@@ -21472,7 +21253,7 @@
       <c r="CL90" s="9"/>
       <c r="CM90" s="9"/>
     </row>
-    <row r="91" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="36"/>
       <c r="B91" s="126">
         <f t="shared" si="52"/>
@@ -21635,7 +21416,7 @@
       <c r="CL91" s="9"/>
       <c r="CM91" s="9"/>
     </row>
-    <row r="92" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="36"/>
       <c r="B92" s="126">
         <f t="shared" si="52"/>
@@ -21798,7 +21579,7 @@
       <c r="CL92" s="9"/>
       <c r="CM92" s="9"/>
     </row>
-    <row r="93" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="36"/>
       <c r="B93" s="126">
         <v>111</v>
@@ -21960,7 +21741,7 @@
       <c r="CL93" s="9"/>
       <c r="CM93" s="9"/>
     </row>
-    <row r="94" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="36"/>
       <c r="B94" s="126">
         <v>116</v>
@@ -22134,7 +21915,7 @@
       <c r="CL94" s="9"/>
       <c r="CM94" s="9"/>
     </row>
-    <row r="95" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="36"/>
       <c r="B95" s="126">
         <f t="shared" si="52"/>
@@ -22309,7 +22090,7 @@
       <c r="CL95" s="9"/>
       <c r="CM95" s="9"/>
     </row>
-    <row r="96" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="36"/>
       <c r="B96" s="126">
         <f t="shared" si="52"/>
@@ -22472,7 +22253,7 @@
       <c r="CL96" s="9"/>
       <c r="CM96" s="9"/>
     </row>
-    <row r="97" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="36"/>
       <c r="B97" s="126">
         <f t="shared" si="52"/>
@@ -22659,7 +22440,7 @@
       <c r="CL97" s="9"/>
       <c r="CM97" s="9"/>
     </row>
-    <row r="98" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="36"/>
       <c r="B98" s="126">
         <f t="shared" si="52"/>
@@ -22834,7 +22615,7 @@
       <c r="CL98" s="9"/>
       <c r="CM98" s="9"/>
     </row>
-    <row r="99" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="36"/>
       <c r="B99" s="126">
         <f t="shared" si="52"/>
@@ -22997,7 +22778,7 @@
       <c r="CL99" s="9"/>
       <c r="CM99" s="9"/>
     </row>
-    <row r="100" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="36"/>
       <c r="B100" s="126">
         <f t="shared" si="52"/>
@@ -23176,7 +22957,7 @@
       <c r="CL100" s="9"/>
       <c r="CM100" s="9"/>
     </row>
-    <row r="101" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="36"/>
       <c r="B101" s="126">
         <f t="shared" si="52"/>
@@ -23351,7 +23132,7 @@
       <c r="CL101" s="9"/>
       <c r="CM101" s="9"/>
     </row>
-    <row r="102" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="36"/>
       <c r="B102" s="126">
         <f t="shared" si="52"/>
@@ -23526,7 +23307,7 @@
       <c r="CL102" s="9"/>
       <c r="CM102" s="9"/>
     </row>
-    <row r="103" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="36"/>
       <c r="B103" s="126">
         <v>126</v>
@@ -23704,7 +23485,7 @@
       <c r="CL103" s="9"/>
       <c r="CM103" s="9"/>
     </row>
-    <row r="104" spans="1:91" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:91" s="2" customFormat="1" ht="42.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="36"/>
       <c r="B104" s="126">
         <v>127</v>
@@ -23894,7 +23675,7 @@
       <c r="CL104" s="9"/>
       <c r="CM104" s="9"/>
     </row>
-    <row r="105" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="36"/>
       <c r="B105" s="126">
         <v>128</v>
@@ -24086,7 +23867,7 @@
       <c r="CL105" s="9"/>
       <c r="CM105" s="9"/>
     </row>
-    <row r="106" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="36"/>
       <c r="B106" s="126">
         <v>129</v>
@@ -24266,7 +24047,7 @@
       <c r="CL106" s="9"/>
       <c r="CM106" s="9"/>
     </row>
-    <row r="107" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="36"/>
       <c r="B107" s="126">
         <v>130</v>
@@ -24445,7 +24226,7 @@
       <c r="CL107" s="9"/>
       <c r="CM107" s="9"/>
     </row>
-    <row r="108" spans="1:91" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:91" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="36"/>
       <c r="B108" s="126">
         <v>131</v>
@@ -24661,7 +24442,7 @@
       <c r="CL108" s="9"/>
       <c r="CM108" s="9"/>
     </row>
-    <row r="109" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="36"/>
       <c r="B109" s="126">
         <v>132</v>
@@ -24873,7 +24654,7 @@
       <c r="CL109" s="9"/>
       <c r="CM109" s="9"/>
     </row>
-    <row r="110" spans="1:91" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:91" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="36"/>
       <c r="B110" s="126">
         <v>133</v>
@@ -25089,7 +24870,7 @@
       <c r="CL110" s="9"/>
       <c r="CM110" s="9"/>
     </row>
-    <row r="111" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="36"/>
       <c r="B111" s="126">
         <v>134</v>
@@ -25301,7 +25082,7 @@
       <c r="CL111" s="9"/>
       <c r="CM111" s="9"/>
     </row>
-    <row r="112" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="36"/>
       <c r="B112" s="126">
         <v>135</v>
@@ -25517,7 +25298,7 @@
       <c r="CL112" s="9"/>
       <c r="CM112" s="9"/>
     </row>
-    <row r="113" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="36"/>
       <c r="B113" s="126">
         <v>136</v>
@@ -25733,7 +25514,7 @@
       <c r="CL113" s="9"/>
       <c r="CM113" s="9"/>
     </row>
-    <row r="114" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="36"/>
       <c r="B114" s="126">
         <v>137</v>
@@ -25926,7 +25707,7 @@
       <c r="CL114" s="9"/>
       <c r="CM114" s="9"/>
     </row>
-    <row r="115" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="36"/>
       <c r="B115" s="126">
         <v>138</v>
@@ -26142,7 +25923,7 @@
       <c r="CL115" s="9"/>
       <c r="CM115" s="9"/>
     </row>
-    <row r="116" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="36"/>
       <c r="B116" s="126">
         <v>139</v>
@@ -26329,7 +26110,7 @@
       <c r="CL116" s="9"/>
       <c r="CM116" s="9"/>
     </row>
-    <row r="117" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="36"/>
       <c r="B117" s="126">
         <v>140</v>
@@ -26541,7 +26322,7 @@
       <c r="CL117" s="9"/>
       <c r="CM117" s="9"/>
     </row>
-    <row r="118" spans="1:91" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:91" s="2" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="36"/>
       <c r="B118" s="126">
         <v>141</v>
@@ -26757,7 +26538,7 @@
       <c r="CL118" s="9"/>
       <c r="CM118" s="9"/>
     </row>
-    <row r="119" spans="1:91" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:91" s="2" customFormat="1" ht="20.3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="36"/>
       <c r="B119" s="126">
         <v>142</v>
@@ -26973,7 +26754,7 @@
       <c r="CL119" s="9"/>
       <c r="CM119" s="9"/>
     </row>
-    <row r="120" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="36"/>
       <c r="B120" s="126">
         <v>143</v>
@@ -27156,7 +26937,7 @@
       <c r="CL120" s="9"/>
       <c r="CM120" s="9"/>
     </row>
-    <row r="121" spans="1:91" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:91" s="2" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="36"/>
       <c r="B121" s="126">
         <v>144</v>
@@ -27368,7 +27149,7 @@
       <c r="CL121" s="9"/>
       <c r="CM121" s="9"/>
     </row>
-    <row r="122" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="36"/>
       <c r="B122" s="126">
         <v>145</v>
@@ -27545,10 +27326,10 @@
         <v/>
       </c>
       <c r="CE122" s="8"/>
-      <c r="CF122" s="144" t="s">
+      <c r="CF122" s="150" t="s">
         <v>91</v>
       </c>
-      <c r="CG122" s="145"/>
+      <c r="CG122" s="151"/>
       <c r="CH122" s="8"/>
       <c r="CI122" s="8"/>
       <c r="CJ122" s="8"/>
@@ -27556,7 +27337,7 @@
       <c r="CL122" s="9"/>
       <c r="CM122" s="9"/>
     </row>
-    <row r="123" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="36"/>
       <c r="B123" s="126">
         <v>146</v>
@@ -27772,7 +27553,7 @@
       <c r="CL123" s="9"/>
       <c r="CM123" s="9"/>
     </row>
-    <row r="124" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="36"/>
       <c r="B124" s="126">
         <v>147</v>
@@ -27992,7 +27773,7 @@
       <c r="CL124" s="9"/>
       <c r="CM124" s="9"/>
     </row>
-    <row r="125" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="36"/>
       <c r="B125" s="126">
         <v>148</v>
@@ -28208,7 +27989,7 @@
       <c r="CL125" s="9"/>
       <c r="CM125" s="9"/>
     </row>
-    <row r="126" spans="1:91" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:91" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="36"/>
       <c r="B126" s="126">
         <v>149</v>
@@ -28432,7 +28213,7 @@
       <c r="CL126" s="24"/>
       <c r="CM126" s="24"/>
     </row>
-    <row r="127" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="36"/>
       <c r="B127" s="126">
         <v>150</v>
@@ -28644,7 +28425,7 @@
       <c r="CL127" s="9"/>
       <c r="CM127" s="9"/>
     </row>
-    <row r="128" spans="1:91" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:91" s="2" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" s="36"/>
       <c r="B128" s="126">
         <v>151</v>
@@ -28860,7 +28641,7 @@
       <c r="CL128" s="9"/>
       <c r="CM128" s="9"/>
     </row>
-    <row r="129" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="36"/>
       <c r="B129" s="126">
         <v>152</v>
@@ -29062,10 +28843,10 @@
         <v/>
       </c>
       <c r="CE129" s="8"/>
-      <c r="CF129" s="144" t="s">
+      <c r="CF129" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="CG129" s="145"/>
+      <c r="CG129" s="151"/>
       <c r="CH129" s="8"/>
       <c r="CI129" s="8"/>
       <c r="CJ129" s="8"/>
@@ -29073,7 +28854,7 @@
       <c r="CL129" s="9"/>
       <c r="CM129" s="9"/>
     </row>
-    <row r="130" spans="1:91" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:91" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="36"/>
       <c r="B130" s="126">
         <v>153</v>
@@ -29293,7 +29074,7 @@
       <c r="CL130" s="24"/>
       <c r="CM130" s="24"/>
     </row>
-    <row r="131" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="36"/>
       <c r="B131" s="126">
         <v>154</v>
@@ -29509,7 +29290,7 @@
       <c r="CL131" s="9"/>
       <c r="CM131" s="9"/>
     </row>
-    <row r="132" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="36"/>
       <c r="B132" s="126">
         <v>155</v>
@@ -29729,7 +29510,7 @@
       <c r="CL132" s="9"/>
       <c r="CM132" s="9"/>
     </row>
-    <row r="133" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="36"/>
       <c r="B133" s="126">
         <v>156</v>
@@ -29908,7 +29689,7 @@
       <c r="CL133" s="9"/>
       <c r="CM133" s="9"/>
     </row>
-    <row r="134" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A134" s="36"/>
       <c r="B134" s="126">
         <v>157</v>
@@ -30124,7 +29905,7 @@
       <c r="CL134" s="9"/>
       <c r="CM134" s="9"/>
     </row>
-    <row r="135" spans="1:91" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:91" s="2" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A135" s="36"/>
       <c r="B135" s="126">
         <v>158</v>
@@ -30308,7 +30089,7 @@
       <c r="CL135" s="9"/>
       <c r="CM135" s="9"/>
     </row>
-    <row r="136" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="36"/>
       <c r="B136" s="126">
         <v>159</v>
@@ -30510,10 +30291,10 @@
         <v/>
       </c>
       <c r="CE136" s="8"/>
-      <c r="CF136" s="144" t="s">
+      <c r="CF136" s="150" t="s">
         <v>101</v>
       </c>
-      <c r="CG136" s="145"/>
+      <c r="CG136" s="151"/>
       <c r="CH136" s="8"/>
       <c r="CI136" s="8"/>
       <c r="CJ136" s="8"/>
@@ -30521,7 +30302,7 @@
       <c r="CL136" s="9"/>
       <c r="CM136" s="9"/>
     </row>
-    <row r="137" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A137" s="36"/>
       <c r="B137" s="126">
         <v>160</v>
@@ -30741,7 +30522,7 @@
       <c r="CL137" s="9"/>
       <c r="CM137" s="9"/>
     </row>
-    <row r="138" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A138" s="36"/>
       <c r="B138" s="126">
         <v>161</v>
@@ -30957,7 +30738,7 @@
       <c r="CL138" s="9"/>
       <c r="CM138" s="9"/>
     </row>
-    <row r="139" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A139" s="36"/>
       <c r="B139" s="126">
         <v>162</v>
@@ -31173,7 +30954,7 @@
       <c r="CL139" s="9"/>
       <c r="CM139" s="9"/>
     </row>
-    <row r="140" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A140" s="36"/>
       <c r="B140" s="126">
         <v>163</v>
@@ -31346,7 +31127,7 @@
       <c r="CL140" s="9"/>
       <c r="CM140" s="9"/>
     </row>
-    <row r="141" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141" s="36"/>
       <c r="B141" s="126">
         <v>164</v>
@@ -31562,7 +31343,7 @@
       <c r="CL141" s="9"/>
       <c r="CM141" s="9"/>
     </row>
-    <row r="142" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="36"/>
       <c r="B142" s="126">
         <v>165</v>
@@ -31742,7 +31523,7 @@
       <c r="CL142" s="9"/>
       <c r="CM142" s="9"/>
     </row>
-    <row r="143" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A143" s="36"/>
       <c r="B143" s="126">
         <v>166</v>
@@ -31922,7 +31703,7 @@
       <c r="CL143" s="9"/>
       <c r="CM143" s="9"/>
     </row>
-    <row r="144" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A144" s="36"/>
       <c r="B144" s="126">
         <v>167</v>
@@ -32138,7 +31919,7 @@
       <c r="CL144" s="9"/>
       <c r="CM144" s="9"/>
     </row>
-    <row r="145" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="36"/>
       <c r="B145" s="126">
         <v>168</v>
@@ -32322,7 +32103,7 @@
       <c r="CL145" s="9"/>
       <c r="CM145" s="9"/>
     </row>
-    <row r="146" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" s="36"/>
       <c r="B146" s="126">
         <v>169</v>
@@ -32502,7 +32283,7 @@
       <c r="CL146" s="9"/>
       <c r="CM146" s="9"/>
     </row>
-    <row r="147" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A147" s="36"/>
       <c r="B147" s="126">
         <v>170</v>
@@ -32722,7 +32503,7 @@
       <c r="CL147" s="9"/>
       <c r="CM147" s="9"/>
     </row>
-    <row r="148" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A148" s="36"/>
       <c r="B148" s="126">
         <v>171</v>
@@ -32938,7 +32719,7 @@
       <c r="CL148" s="9"/>
       <c r="CM148" s="9"/>
     </row>
-    <row r="149" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="36"/>
       <c r="B149" s="126">
         <v>172</v>
@@ -33122,7 +32903,7 @@
       <c r="CL149" s="9"/>
       <c r="CM149" s="9"/>
     </row>
-    <row r="150" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A150" s="36"/>
       <c r="B150" s="126">
         <v>173</v>
@@ -33338,7 +33119,7 @@
       <c r="CL150" s="9"/>
       <c r="CM150" s="9"/>
     </row>
-    <row r="151" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A151" s="36"/>
       <c r="B151" s="126">
         <v>174</v>
@@ -33562,7 +33343,7 @@
       <c r="CL151" s="9"/>
       <c r="CM151" s="9"/>
     </row>
-    <row r="152" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A152" s="36"/>
       <c r="B152" s="126">
         <v>175</v>
@@ -33744,7 +33525,7 @@
       <c r="CL152" s="9"/>
       <c r="CM152" s="9"/>
     </row>
-    <row r="153" spans="1:91" s="2" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:91" s="2" customFormat="1" ht="20.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A153" s="36"/>
       <c r="B153" s="126">
         <v>176</v>
@@ -33960,7 +33741,7 @@
       <c r="CL153" s="9"/>
       <c r="CM153" s="9"/>
     </row>
-    <row r="154" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154" s="36"/>
       <c r="B154" s="126">
         <v>177</v>
@@ -34158,10 +33939,10 @@
         <v/>
       </c>
       <c r="CE154" s="8"/>
-      <c r="CF154" s="144" t="s">
+      <c r="CF154" s="150" t="s">
         <v>51</v>
       </c>
-      <c r="CG154" s="145"/>
+      <c r="CG154" s="151"/>
       <c r="CH154" s="8"/>
       <c r="CI154" s="8"/>
       <c r="CJ154" s="8"/>
@@ -34169,7 +33950,7 @@
       <c r="CL154" s="9"/>
       <c r="CM154" s="9"/>
     </row>
-    <row r="155" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A155" s="36"/>
       <c r="B155" s="126">
         <v>178</v>
@@ -34383,7 +34164,7 @@
       <c r="CJ155" s="9"/>
       <c r="CK155" s="9"/>
     </row>
-    <row r="156" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A156" s="38"/>
       <c r="B156" s="126">
         <v>179</v>
@@ -34580,7 +34361,7 @@
       <c r="CJ156" s="9"/>
       <c r="CK156" s="9"/>
     </row>
-    <row r="157" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A157" s="36"/>
       <c r="B157" s="126">
         <v>180</v>
@@ -34767,7 +34548,7 @@
       <c r="CJ157" s="9"/>
       <c r="CK157" s="9"/>
     </row>
-    <row r="158" spans="1:91" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:91" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A158" s="36"/>
       <c r="B158" s="126">
         <v>181</v>
@@ -34944,7 +34725,7 @@
       <c r="CJ158" s="24"/>
       <c r="CK158" s="24"/>
     </row>
-    <row r="159" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A159" s="36"/>
       <c r="B159" s="126">
         <v>182</v>
@@ -35125,7 +34906,7 @@
       <c r="CJ159" s="9"/>
       <c r="CK159" s="9"/>
     </row>
-    <row r="160" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A160" s="36"/>
       <c r="B160" s="126">
         <v>183</v>
@@ -35303,7 +35084,7 @@
       <c r="CJ160" s="9"/>
       <c r="CK160" s="9"/>
     </row>
-    <row r="161" spans="1:91" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:91" s="2" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161" s="36"/>
       <c r="B161" s="126">
         <v>184</v>
@@ -35478,7 +35259,7 @@
       <c r="CJ161" s="9"/>
       <c r="CK161" s="9"/>
     </row>
-    <row r="162" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A162" s="38"/>
       <c r="B162" s="126">
         <v>185</v>
@@ -35640,10 +35421,10 @@
         <v/>
       </c>
       <c r="CE162" s="8"/>
-      <c r="CF162" s="146" t="s">
+      <c r="CF162" s="159" t="s">
         <v>52</v>
       </c>
-      <c r="CG162" s="147"/>
+      <c r="CG162" s="160"/>
       <c r="CH162" s="8"/>
       <c r="CI162" s="8"/>
       <c r="CJ162" s="8"/>
@@ -35651,7 +35432,7 @@
       <c r="CL162" s="9"/>
       <c r="CM162" s="9"/>
     </row>
-    <row r="163" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A163" s="36"/>
       <c r="B163" s="126">
         <v>186</v>
@@ -35832,7 +35613,7 @@
       <c r="CL163" s="9"/>
       <c r="CM163" s="9"/>
     </row>
-    <row r="164" spans="1:91" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:91" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="52"/>
       <c r="B164" s="126">
         <v>187</v>
@@ -36008,7 +35789,7 @@
       <c r="CL164" s="24"/>
       <c r="CM164" s="24"/>
     </row>
-    <row r="165" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="52"/>
       <c r="B165" s="126">
         <v>188</v>
@@ -36228,7 +36009,7 @@
       <c r="CL165" s="9"/>
       <c r="CM165" s="9"/>
     </row>
-    <row r="166" spans="1:91" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:91" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="52"/>
       <c r="B166" s="126">
         <v>189</v>
@@ -36404,7 +36185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A167" s="52"/>
       <c r="B167" s="126">
         <v>190</v>
@@ -36573,12 +36354,12 @@
         <f t="shared" si="128"/>
         <v/>
       </c>
-      <c r="CF167" s="144" t="s">
+      <c r="CF167" s="150" t="s">
         <v>102</v>
       </c>
-      <c r="CG167" s="145"/>
+      <c r="CG167" s="151"/>
     </row>
-    <row r="168" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A168" s="52"/>
       <c r="B168" s="126">
         <v>191</v>
@@ -36743,7 +36524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:91" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:91" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" s="52"/>
       <c r="B169" s="126">
         <v>192</v>
@@ -36915,7 +36696,7 @@
       <c r="CF169" s="64"/>
       <c r="CG169" s="65"/>
     </row>
-    <row r="170" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A170" s="52"/>
       <c r="B170" s="126">
         <v>193</v>
@@ -37076,12 +36857,12 @@
         <f t="shared" si="128"/>
         <v/>
       </c>
-      <c r="CF170" s="144" t="s">
+      <c r="CF170" s="150" t="s">
         <v>104</v>
       </c>
-      <c r="CG170" s="145"/>
+      <c r="CG170" s="151"/>
     </row>
-    <row r="171" spans="1:91" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:91" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A171" s="52"/>
       <c r="B171" s="126">
         <v>194</v>
@@ -37254,7 +37035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A172" s="52"/>
       <c r="B172" s="126">
         <v>195</v>
@@ -37415,12 +37196,12 @@
         <f t="shared" si="128"/>
         <v/>
       </c>
-      <c r="CF172" s="154" t="s">
+      <c r="CF172" s="144" t="s">
         <v>111</v>
       </c>
-      <c r="CG172" s="155"/>
+      <c r="CG172" s="145"/>
     </row>
-    <row r="173" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A173" s="52"/>
       <c r="B173" s="126">
         <v>196</v>
@@ -37593,7 +37374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A174" s="52"/>
       <c r="B174" s="126">
         <v>197</v>
@@ -37758,7 +37539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:91" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:91" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A175" s="52"/>
       <c r="B175" s="126"/>
       <c r="C175" s="126"/>
@@ -37911,7 +37692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:91" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:91" ht="22.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="52"/>
       <c r="B176" s="126"/>
       <c r="C176" s="126"/>
@@ -38057,7 +37838,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="52"/>
       <c r="B177" s="126"/>
       <c r="C177" s="126"/>
@@ -38203,7 +37984,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="52"/>
       <c r="B178" s="126"/>
       <c r="C178" s="126"/>
@@ -38349,7 +38130,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A179" s="52"/>
       <c r="B179" s="126"/>
       <c r="C179" s="126"/>
@@ -38495,7 +38276,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A180" s="52"/>
       <c r="B180" s="126"/>
       <c r="C180" s="126"/>
@@ -38641,7 +38422,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:82" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:82" ht="22.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="52"/>
       <c r="B181" s="16"/>
       <c r="C181" s="5"/>
@@ -38787,7 +38568,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="52"/>
       <c r="B182" s="16"/>
       <c r="C182" s="5"/>
@@ -38933,7 +38714,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:82" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:82" ht="20.3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="52"/>
       <c r="B183" s="16"/>
       <c r="C183" s="5"/>
@@ -39079,7 +38860,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:82" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:82" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="52"/>
       <c r="B184" s="16"/>
       <c r="C184" s="5"/>
@@ -39225,7 +39006,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A185" s="52"/>
       <c r="B185" s="16"/>
       <c r="C185" s="5"/>
@@ -39371,7 +39152,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A186" s="52"/>
       <c r="B186" s="16"/>
       <c r="C186" s="5"/>
@@ -39517,7 +39298,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:82" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:82" ht="27.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="52"/>
       <c r="B187" s="16"/>
       <c r="C187" s="5"/>
@@ -39663,7 +39444,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A188" s="52"/>
       <c r="B188" s="16"/>
       <c r="C188" s="5"/>
@@ -39809,7 +39590,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A189" s="52"/>
       <c r="B189" s="16"/>
       <c r="C189" s="5"/>
@@ -39955,7 +39736,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A190" s="52"/>
       <c r="B190" s="16"/>
       <c r="C190" s="5"/>
@@ -40101,7 +39882,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A191" s="52"/>
       <c r="B191" s="16"/>
       <c r="C191" s="5"/>
@@ -40247,7 +40028,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:82" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:82" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="52"/>
       <c r="B192" s="16"/>
       <c r="C192" s="5"/>
@@ -40392,7 +40173,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A193" s="52"/>
       <c r="B193" s="16"/>
       <c r="C193" s="5"/>
@@ -40535,7 +40316,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A194" s="52"/>
       <c r="B194" s="16"/>
       <c r="C194" s="5"/>
@@ -40678,7 +40459,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A195" s="52"/>
       <c r="B195" s="16"/>
       <c r="C195" s="5"/>
@@ -40821,7 +40602,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A196" s="52"/>
       <c r="B196" s="16"/>
       <c r="C196" s="5"/>
@@ -40964,7 +40745,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A197" s="52"/>
       <c r="B197" s="16"/>
       <c r="C197" s="5"/>
@@ -41107,7 +40888,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A198" s="52"/>
       <c r="B198" s="16"/>
       <c r="C198" s="5"/>
@@ -41250,7 +41031,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A199" s="52"/>
       <c r="B199" s="16"/>
       <c r="C199" s="5"/>
@@ -41393,7 +41174,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A200" s="52"/>
       <c r="B200" s="16"/>
       <c r="C200" s="5"/>
@@ -41536,7 +41317,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A201" s="52"/>
       <c r="B201" s="16"/>
       <c r="C201" s="5"/>
@@ -41679,7 +41460,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:82" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:82" ht="21.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="52"/>
       <c r="B202" s="16"/>
       <c r="C202" s="5"/>
@@ -41822,7 +41603,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A203" s="52"/>
       <c r="B203" s="16"/>
       <c r="C203" s="5"/>
@@ -41965,7 +41746,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A204" s="52"/>
       <c r="B204" s="16"/>
       <c r="C204" s="5"/>
@@ -42108,7 +41889,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A205" s="52"/>
       <c r="B205" s="16"/>
       <c r="C205" s="5"/>
@@ -42251,7 +42032,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A206" s="52"/>
       <c r="B206" s="16"/>
       <c r="C206" s="5"/>
@@ -42394,7 +42175,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A207" s="52"/>
       <c r="B207" s="16"/>
       <c r="C207" s="5"/>
@@ -42537,7 +42318,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A208" s="52"/>
       <c r="B208" s="16"/>
       <c r="C208" s="5"/>
@@ -42680,7 +42461,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A209" s="52"/>
       <c r="B209" s="16"/>
       <c r="C209" s="5"/>
@@ -42823,7 +42604,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A210" s="52"/>
       <c r="B210" s="16"/>
       <c r="C210" s="5"/>
@@ -42966,7 +42747,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A211" s="52"/>
       <c r="B211" s="16"/>
       <c r="C211" s="98"/>
@@ -43109,7 +42890,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A212" s="52"/>
       <c r="B212" s="16"/>
       <c r="C212" s="5"/>
@@ -43252,7 +43033,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A213" s="52"/>
       <c r="B213" s="16"/>
       <c r="C213" s="5"/>
@@ -43395,7 +43176,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A214" s="52"/>
       <c r="B214" s="16"/>
       <c r="C214" s="5"/>
@@ -43538,7 +43319,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A215" s="52"/>
       <c r="B215" s="16"/>
       <c r="C215" s="5"/>
@@ -43665,7 +43446,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A216" s="52"/>
       <c r="B216" s="16"/>
       <c r="C216" s="5"/>
@@ -43792,7 +43573,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A217" s="52"/>
       <c r="B217" s="51"/>
       <c r="C217" s="5"/>
@@ -43919,7 +43700,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A218" s="52"/>
       <c r="B218" s="16"/>
       <c r="C218" s="5"/>
@@ -44046,7 +43827,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A219" s="52"/>
       <c r="B219" s="16"/>
       <c r="C219" s="5"/>
@@ -44173,7 +43954,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A220" s="52"/>
       <c r="B220" s="16"/>
       <c r="C220" s="5"/>
@@ -44300,7 +44081,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A221" s="52"/>
       <c r="B221" s="16"/>
       <c r="C221" s="5"/>
@@ -44427,7 +44208,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A222" s="52"/>
       <c r="B222" s="16"/>
       <c r="C222" s="16"/>
@@ -44554,7 +44335,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A223" s="52"/>
       <c r="B223" s="16"/>
       <c r="C223" s="16"/>
@@ -44681,7 +44462,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A224" s="52"/>
       <c r="B224" s="16"/>
       <c r="C224" s="16"/>
@@ -44808,7 +44589,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A225" s="52"/>
       <c r="B225" s="16"/>
       <c r="C225" s="16"/>
@@ -44935,7 +44716,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A226" s="52"/>
       <c r="B226" s="16"/>
       <c r="C226" s="16"/>
@@ -45062,7 +44843,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A227" s="52"/>
       <c r="B227" s="16"/>
       <c r="C227" s="16"/>
@@ -45189,7 +44970,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A228" s="52"/>
       <c r="B228" s="16"/>
       <c r="C228" s="16"/>
@@ -45316,7 +45097,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A229" s="52"/>
       <c r="B229" s="16"/>
       <c r="C229" s="16"/>
@@ -45443,7 +45224,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A230" s="52"/>
       <c r="B230" s="16"/>
       <c r="C230" s="16"/>
@@ -45570,7 +45351,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A231" s="52"/>
       <c r="B231" s="16"/>
       <c r="C231" s="16"/>
@@ -45697,7 +45478,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A232" s="52"/>
       <c r="B232" s="16"/>
       <c r="C232" s="16"/>
@@ -45824,7 +45605,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A233" s="52"/>
       <c r="B233" s="16"/>
       <c r="C233" s="16"/>
@@ -45951,7 +45732,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A234" s="52"/>
       <c r="B234" s="16"/>
       <c r="C234" s="16"/>
@@ -46078,7 +45859,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A235" s="52"/>
       <c r="B235" s="16"/>
       <c r="C235" s="16"/>
@@ -46205,7 +45986,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A236" s="52"/>
       <c r="B236" s="16"/>
       <c r="C236" s="16"/>
@@ -46332,7 +46113,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A237" s="52"/>
       <c r="B237" s="16"/>
       <c r="C237" s="16"/>
@@ -46455,7 +46236,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A238" s="52"/>
       <c r="B238" s="16"/>
       <c r="C238" s="16"/>
@@ -46582,7 +46363,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A239" s="52"/>
       <c r="B239" s="16"/>
       <c r="C239" s="16"/>
@@ -46709,7 +46490,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A240" s="52"/>
       <c r="B240" s="16"/>
       <c r="C240" s="16"/>
@@ -46836,7 +46617,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A241" s="52"/>
       <c r="B241" s="16"/>
       <c r="C241" s="16"/>
@@ -46963,7 +46744,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A242" s="52"/>
       <c r="B242" s="16"/>
       <c r="C242" s="16"/>
@@ -47090,7 +46871,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:82" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:82" ht="18.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="52"/>
       <c r="B243" s="16"/>
       <c r="C243" s="16"/>
@@ -47217,7 +46998,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A244" s="52"/>
       <c r="B244" s="16"/>
       <c r="C244" s="16"/>
@@ -47344,7 +47125,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A245" s="52"/>
       <c r="B245" s="16"/>
       <c r="C245" s="16"/>
@@ -47471,7 +47252,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A246" s="52"/>
       <c r="B246" s="16"/>
       <c r="C246" s="16"/>
@@ -47598,7 +47379,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A247" s="52"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -47725,7 +47506,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A248" s="52"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -47852,7 +47633,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A249" s="52"/>
       <c r="B249" s="5"/>
       <c r="C249" s="17"/>
@@ -47979,7 +47760,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A250" s="52"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -48106,7 +47887,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A251" s="52"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -48233,7 +48014,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A252" s="52"/>
       <c r="B252" s="5"/>
       <c r="C252" s="17"/>
@@ -48360,7 +48141,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A253" s="52"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -48487,7 +48268,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A254" s="52"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -48614,7 +48395,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A255" s="52"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -48741,7 +48522,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A256" s="52"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -48868,7 +48649,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A257" s="52"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
@@ -48995,7 +48776,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A258" s="52"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
@@ -49122,7 +48903,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A259" s="52"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -49249,7 +49030,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A260" s="52"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -49376,7 +49157,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A261" s="52"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -49503,7 +49284,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A262" s="52"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -49630,7 +49411,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A263" s="52"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -49757,7 +49538,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A264" s="52"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -49884,7 +49665,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A265" s="53"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -50028,7 +49809,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A266" s="53"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -50172,7 +49953,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:91" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:91" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A267" s="52"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -50325,7 +50106,7 @@
       <c r="CL267" s="24"/>
       <c r="CM267" s="24"/>
     </row>
-    <row r="268" spans="1:91" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:91" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A268" s="52"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -50478,7 +50259,7 @@
       <c r="CL268" s="24"/>
       <c r="CM268" s="24"/>
     </row>
-    <row r="269" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A269" s="52"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -50605,7 +50386,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A270" s="52"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -50732,7 +50513,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A271" s="52"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -50859,7 +50640,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A272" s="52"/>
       <c r="B272" s="17"/>
       <c r="C272" s="17"/>
@@ -50986,7 +50767,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A273" s="52"/>
       <c r="B273" s="17"/>
       <c r="C273" s="17"/>
@@ -51113,7 +50894,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A274" s="52"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -51242,7 +51023,7 @@
       <c r="CF274" s="23"/>
       <c r="CG274" s="23"/>
     </row>
-    <row r="275" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A275" s="52"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -51371,7 +51152,7 @@
       <c r="CF275" s="23"/>
       <c r="CG275" s="23"/>
     </row>
-    <row r="276" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A276" s="52"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -51498,7 +51279,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A277" s="52"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -51625,7 +51406,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A278" s="52"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -51752,7 +51533,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A279" s="53"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -51896,7 +51677,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A280" s="53"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -52040,7 +51821,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:91" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:91" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A281" s="52"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -52193,7 +51974,7 @@
       <c r="CL281" s="24"/>
       <c r="CM281" s="24"/>
     </row>
-    <row r="282" spans="1:91" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:91" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A282" s="52"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -52346,7 +52127,7 @@
       <c r="CL282" s="24"/>
       <c r="CM282" s="24"/>
     </row>
-    <row r="283" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A283" s="52"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -52473,7 +52254,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A284" s="52"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -52600,7 +52381,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A285" s="52"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -52727,7 +52508,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A286" s="52"/>
       <c r="B286" s="17"/>
       <c r="C286" s="17"/>
@@ -52778,7 +52559,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A287" s="52"/>
       <c r="B287" s="17"/>
       <c r="C287" s="17"/>
@@ -52829,7 +52610,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A288" s="52"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -52882,7 +52663,7 @@
       <c r="CF288" s="23"/>
       <c r="CG288" s="23"/>
     </row>
-    <row r="289" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A289" s="53"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -52952,7 +52733,7 @@
       <c r="CF289" s="23"/>
       <c r="CG289" s="23"/>
     </row>
-    <row r="290" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:91" x14ac:dyDescent="0.35">
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
       <c r="D290" s="5"/>
@@ -52998,7 +52779,7 @@
       <c r="AR290" s="74"/>
       <c r="AS290" s="35"/>
     </row>
-    <row r="291" spans="1:91" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:91" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A291" s="1"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -53091,7 +52872,7 @@
       <c r="CL291" s="24"/>
       <c r="CM291" s="24"/>
     </row>
-    <row r="292" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:91" x14ac:dyDescent="0.35">
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
       <c r="D292" s="5"/>
@@ -53137,7 +52918,7 @@
       <c r="AR292" s="74"/>
       <c r="AS292" s="35"/>
     </row>
-    <row r="293" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:91" x14ac:dyDescent="0.35">
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
       <c r="D293" s="5"/>
@@ -53183,7 +52964,7 @@
       <c r="AR293" s="74"/>
       <c r="AS293" s="35"/>
     </row>
-    <row r="294" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:91" x14ac:dyDescent="0.35">
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
@@ -53229,7 +53010,7 @@
       <c r="AR294" s="74"/>
       <c r="AS294" s="35"/>
     </row>
-    <row r="295" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:91" x14ac:dyDescent="0.35">
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
       <c r="D295" s="5"/>
@@ -53275,7 +53056,7 @@
       <c r="AR295" s="74"/>
       <c r="AS295" s="56"/>
     </row>
-    <row r="296" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:91" x14ac:dyDescent="0.35">
       <c r="B296" s="55"/>
       <c r="C296" s="55"/>
       <c r="D296" s="55"/>
@@ -53320,7 +53101,7 @@
       <c r="AQ296" s="122"/>
       <c r="AR296" s="74"/>
     </row>
-    <row r="297" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:91" x14ac:dyDescent="0.35">
       <c r="B297" s="6"/>
       <c r="C297" s="6"/>
       <c r="D297" s="6"/>
@@ -53364,7 +53145,7 @@
       <c r="AP297" s="6"/>
       <c r="AQ297" s="6"/>
     </row>
-    <row r="298" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:91" x14ac:dyDescent="0.35">
       <c r="B298" s="6"/>
       <c r="C298" s="6"/>
       <c r="D298" s="6"/>
@@ -53410,7 +53191,7 @@
       <c r="CF298" s="23"/>
       <c r="CG298" s="23"/>
     </row>
-    <row r="299" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:91" x14ac:dyDescent="0.35">
       <c r="B299" s="6"/>
       <c r="C299" s="6"/>
       <c r="D299" s="6"/>
@@ -53454,7 +53235,7 @@
       <c r="AP299" s="6"/>
       <c r="AQ299" s="6"/>
     </row>
-    <row r="300" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:91" x14ac:dyDescent="0.35">
       <c r="B300" s="6"/>
       <c r="C300" s="6"/>
       <c r="D300" s="6"/>
@@ -53498,7 +53279,7 @@
       <c r="AP300" s="6"/>
       <c r="AQ300" s="6"/>
     </row>
-    <row r="301" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:91" x14ac:dyDescent="0.35">
       <c r="B301" s="6"/>
       <c r="C301" s="6"/>
       <c r="D301" s="6"/>
@@ -53542,7 +53323,7 @@
       <c r="AP301" s="6"/>
       <c r="AQ301" s="6"/>
     </row>
-    <row r="302" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:91" x14ac:dyDescent="0.35">
       <c r="B302" s="6"/>
       <c r="C302" s="6"/>
       <c r="D302" s="6"/>
@@ -53586,7 +53367,7 @@
       <c r="AP302" s="6"/>
       <c r="AQ302" s="6"/>
     </row>
-    <row r="303" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:91" x14ac:dyDescent="0.35">
       <c r="B303" s="6"/>
       <c r="C303" s="6"/>
       <c r="D303" s="6"/>
@@ -53630,7 +53411,7 @@
       <c r="AP303" s="6"/>
       <c r="AQ303" s="6"/>
     </row>
-    <row r="304" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:91" x14ac:dyDescent="0.35">
       <c r="B304" s="6"/>
       <c r="C304" s="6"/>
       <c r="D304" s="6"/>
@@ -53674,7 +53455,7 @@
       <c r="AP304" s="6"/>
       <c r="AQ304" s="6"/>
     </row>
-    <row r="305" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B305" s="6"/>
       <c r="C305" s="6"/>
       <c r="D305" s="6"/>
@@ -53718,7 +53499,7 @@
       <c r="AP305" s="6"/>
       <c r="AQ305" s="6"/>
     </row>
-    <row r="306" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B306" s="6"/>
       <c r="C306" s="6"/>
       <c r="D306" s="6"/>
@@ -53762,7 +53543,7 @@
       <c r="AP306" s="6"/>
       <c r="AQ306" s="6"/>
     </row>
-    <row r="307" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B307" s="6"/>
       <c r="C307" s="6"/>
       <c r="D307" s="6"/>
@@ -53806,7 +53587,7 @@
       <c r="AP307" s="6"/>
       <c r="AQ307" s="6"/>
     </row>
-    <row r="308" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B308" s="6"/>
       <c r="C308" s="6"/>
       <c r="D308" s="6"/>
@@ -53850,7 +53631,7 @@
       <c r="AP308" s="6"/>
       <c r="AQ308" s="6"/>
     </row>
-    <row r="309" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B309" s="6"/>
       <c r="C309" s="6"/>
       <c r="D309" s="6"/>
@@ -53894,7 +53675,7 @@
       <c r="AP309" s="6"/>
       <c r="AQ309" s="6"/>
     </row>
-    <row r="310" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B310" s="6"/>
       <c r="C310" s="6"/>
       <c r="D310" s="6"/>
@@ -53938,7 +53719,7 @@
       <c r="AP310" s="6"/>
       <c r="AQ310" s="6"/>
     </row>
-    <row r="311" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B311" s="6"/>
       <c r="C311" s="6"/>
       <c r="D311" s="6"/>
@@ -53982,7 +53763,7 @@
       <c r="AP311" s="6"/>
       <c r="AQ311" s="6"/>
     </row>
-    <row r="312" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B312" s="6"/>
       <c r="C312" s="6"/>
       <c r="D312" s="6"/>
@@ -54026,7 +53807,7 @@
       <c r="AP312" s="6"/>
       <c r="AQ312" s="6"/>
     </row>
-    <row r="313" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B313" s="6"/>
       <c r="C313" s="6"/>
       <c r="D313" s="6"/>
@@ -54070,7 +53851,7 @@
       <c r="AP313" s="6"/>
       <c r="AQ313" s="6"/>
     </row>
-    <row r="314" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B314" s="6"/>
       <c r="C314" s="6"/>
       <c r="D314" s="6"/>
@@ -54114,7 +53895,7 @@
       <c r="AP314" s="6"/>
       <c r="AQ314" s="6"/>
     </row>
-    <row r="315" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B315" s="6"/>
       <c r="C315" s="6"/>
       <c r="D315" s="6"/>
@@ -54158,7 +53939,7 @@
       <c r="AP315" s="6"/>
       <c r="AQ315" s="6"/>
     </row>
-    <row r="316" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B316" s="6"/>
       <c r="C316" s="6"/>
       <c r="D316" s="6"/>
@@ -54202,7 +53983,7 @@
       <c r="AP316" s="6"/>
       <c r="AQ316" s="6"/>
     </row>
-    <row r="317" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B317" s="6"/>
       <c r="C317" s="6"/>
       <c r="D317" s="6"/>
@@ -54246,7 +54027,7 @@
       <c r="AP317" s="6"/>
       <c r="AQ317" s="6"/>
     </row>
-    <row r="318" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B318" s="6"/>
       <c r="C318" s="6"/>
       <c r="D318" s="6"/>
@@ -54290,7 +54071,7 @@
       <c r="AP318" s="6"/>
       <c r="AQ318" s="6"/>
     </row>
-    <row r="319" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B319" s="6"/>
       <c r="C319" s="6"/>
       <c r="D319" s="6"/>
@@ -54334,7 +54115,7 @@
       <c r="AP319" s="6"/>
       <c r="AQ319" s="6"/>
     </row>
-    <row r="320" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B320" s="6"/>
       <c r="C320" s="6"/>
       <c r="D320" s="6"/>
@@ -54378,7 +54159,7 @@
       <c r="AP320" s="6"/>
       <c r="AQ320" s="6"/>
     </row>
-    <row r="321" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B321" s="6"/>
       <c r="C321" s="6"/>
       <c r="D321" s="6"/>
@@ -54422,7 +54203,7 @@
       <c r="AP321" s="6"/>
       <c r="AQ321" s="6"/>
     </row>
-    <row r="322" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B322" s="6"/>
       <c r="C322" s="6"/>
       <c r="D322" s="6"/>
@@ -54466,7 +54247,7 @@
       <c r="AP322" s="6"/>
       <c r="AQ322" s="6"/>
     </row>
-    <row r="323" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B323" s="6"/>
       <c r="C323" s="6"/>
       <c r="D323" s="6"/>
@@ -54510,7 +54291,7 @@
       <c r="AP323" s="6"/>
       <c r="AQ323" s="6"/>
     </row>
-    <row r="324" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B324" s="6"/>
       <c r="C324" s="6"/>
       <c r="D324" s="6"/>
@@ -54554,7 +54335,7 @@
       <c r="AP324" s="6"/>
       <c r="AQ324" s="6"/>
     </row>
-    <row r="325" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B325" s="6"/>
       <c r="C325" s="6"/>
       <c r="D325" s="6"/>
@@ -54598,7 +54379,7 @@
       <c r="AP325" s="6"/>
       <c r="AQ325" s="6"/>
     </row>
-    <row r="326" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B326" s="6"/>
       <c r="C326" s="6"/>
       <c r="D326" s="6"/>
@@ -54642,7 +54423,7 @@
       <c r="AP326" s="6"/>
       <c r="AQ326" s="6"/>
     </row>
-    <row r="327" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B327" s="6"/>
       <c r="C327" s="6"/>
       <c r="D327" s="6"/>
@@ -54686,7 +54467,7 @@
       <c r="AP327" s="6"/>
       <c r="AQ327" s="6"/>
     </row>
-    <row r="328" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B328" s="6"/>
       <c r="C328" s="6"/>
       <c r="D328" s="6"/>
@@ -54730,7 +54511,7 @@
       <c r="AP328" s="6"/>
       <c r="AQ328" s="6"/>
     </row>
-    <row r="329" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B329" s="6"/>
       <c r="C329" s="6"/>
       <c r="D329" s="6"/>
@@ -54774,7 +54555,7 @@
       <c r="AP329" s="6"/>
       <c r="AQ329" s="6"/>
     </row>
-    <row r="330" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B330" s="6"/>
       <c r="C330" s="6"/>
       <c r="D330" s="6"/>
@@ -54818,7 +54599,7 @@
       <c r="AP330" s="6"/>
       <c r="AQ330" s="6"/>
     </row>
-    <row r="331" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B331" s="6"/>
       <c r="C331" s="6"/>
       <c r="D331" s="6"/>
@@ -54862,7 +54643,7 @@
       <c r="AP331" s="6"/>
       <c r="AQ331" s="6"/>
     </row>
-    <row r="332" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B332" s="6"/>
       <c r="C332" s="6"/>
       <c r="D332" s="6"/>
@@ -54906,7 +54687,7 @@
       <c r="AP332" s="6"/>
       <c r="AQ332" s="6"/>
     </row>
-    <row r="333" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B333" s="6"/>
       <c r="C333" s="6"/>
       <c r="D333" s="6"/>
@@ -54950,7 +54731,7 @@
       <c r="AP333" s="6"/>
       <c r="AQ333" s="6"/>
     </row>
-    <row r="334" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B334" s="6"/>
       <c r="C334" s="6"/>
       <c r="D334" s="6"/>
@@ -54994,7 +54775,7 @@
       <c r="AP334" s="6"/>
       <c r="AQ334" s="6"/>
     </row>
-    <row r="335" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B335" s="6"/>
       <c r="C335" s="6"/>
       <c r="D335" s="6"/>
@@ -55038,7 +54819,7 @@
       <c r="AP335" s="6"/>
       <c r="AQ335" s="6"/>
     </row>
-    <row r="336" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B336" s="6"/>
       <c r="C336" s="6"/>
       <c r="D336" s="6"/>
@@ -55082,7 +54863,7 @@
       <c r="AP336" s="6"/>
       <c r="AQ336" s="6"/>
     </row>
-    <row r="337" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B337" s="6"/>
       <c r="C337" s="6"/>
       <c r="D337" s="6"/>
@@ -55126,7 +54907,7 @@
       <c r="AP337" s="6"/>
       <c r="AQ337" s="6"/>
     </row>
-    <row r="338" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B338" s="6"/>
       <c r="C338" s="6"/>
       <c r="D338" s="6"/>
@@ -55170,7 +54951,7 @@
       <c r="AP338" s="6"/>
       <c r="AQ338" s="6"/>
     </row>
-    <row r="339" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B339" s="6"/>
       <c r="C339" s="6"/>
       <c r="D339" s="6"/>
@@ -55214,7 +54995,7 @@
       <c r="AP339" s="6"/>
       <c r="AQ339" s="6"/>
     </row>
-    <row r="340" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B340" s="6"/>
       <c r="C340" s="6"/>
       <c r="D340" s="6"/>
@@ -55258,7 +55039,7 @@
       <c r="AP340" s="6"/>
       <c r="AQ340" s="6"/>
     </row>
-    <row r="341" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B341" s="6"/>
       <c r="C341" s="6"/>
       <c r="D341" s="6"/>
@@ -55302,7 +55083,7 @@
       <c r="AP341" s="6"/>
       <c r="AQ341" s="6"/>
     </row>
-    <row r="342" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B342" s="6"/>
       <c r="C342" s="6"/>
       <c r="D342" s="6"/>
@@ -55346,7 +55127,7 @@
       <c r="AP342" s="6"/>
       <c r="AQ342" s="6"/>
     </row>
-    <row r="343" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B343" s="6"/>
       <c r="C343" s="6"/>
       <c r="D343" s="6"/>
@@ -55390,7 +55171,7 @@
       <c r="AP343" s="6"/>
       <c r="AQ343" s="6"/>
     </row>
-    <row r="344" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B344" s="6"/>
       <c r="C344" s="6"/>
       <c r="D344" s="6"/>
@@ -55434,7 +55215,7 @@
       <c r="AP344" s="6"/>
       <c r="AQ344" s="6"/>
     </row>
-    <row r="345" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B345" s="6"/>
       <c r="C345" s="6"/>
       <c r="D345" s="6"/>
@@ -55478,7 +55259,7 @@
       <c r="AP345" s="6"/>
       <c r="AQ345" s="6"/>
     </row>
-    <row r="346" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B346" s="6"/>
       <c r="C346" s="6"/>
       <c r="D346" s="6"/>
@@ -55522,7 +55303,7 @@
       <c r="AP346" s="6"/>
       <c r="AQ346" s="6"/>
     </row>
-    <row r="347" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B347" s="6"/>
       <c r="C347" s="6"/>
       <c r="D347" s="6"/>
@@ -55566,7 +55347,7 @@
       <c r="AP347" s="6"/>
       <c r="AQ347" s="6"/>
     </row>
-    <row r="348" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B348" s="6"/>
       <c r="C348" s="6"/>
       <c r="D348" s="6"/>
@@ -55610,7 +55391,7 @@
       <c r="AP348" s="6"/>
       <c r="AQ348" s="6"/>
     </row>
-    <row r="349" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B349" s="6"/>
       <c r="C349" s="6"/>
       <c r="D349" s="6"/>
@@ -55654,7 +55435,7 @@
       <c r="AP349" s="6"/>
       <c r="AQ349" s="6"/>
     </row>
-    <row r="350" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B350" s="6"/>
       <c r="C350" s="6"/>
       <c r="D350" s="6"/>
@@ -55698,7 +55479,7 @@
       <c r="AP350" s="6"/>
       <c r="AQ350" s="6"/>
     </row>
-    <row r="351" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B351" s="6"/>
       <c r="C351" s="6"/>
       <c r="D351" s="6"/>
@@ -55742,11 +55523,24 @@
       <c r="AP351" s="6"/>
       <c r="AQ351" s="6"/>
     </row>
-    <row r="352" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:43" x14ac:dyDescent="0.35">
       <c r="AA352" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="CF170:CG170"/>
+    <mergeCell ref="CF31:CG31"/>
+    <mergeCell ref="CF10:CG10"/>
+    <mergeCell ref="CF129:CG129"/>
+    <mergeCell ref="CF122:CG122"/>
+    <mergeCell ref="CF136:CG136"/>
+    <mergeCell ref="CF154:CG154"/>
+    <mergeCell ref="CF162:CG162"/>
+    <mergeCell ref="BZ1:CA1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="BN1:BP1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="CF167:CG167"/>
     <mergeCell ref="CF172:CG172"/>
     <mergeCell ref="AB1:AG1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -55763,649 +55557,566 @@
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BS1:BV1"/>
     <mergeCell ref="BX1:BY1"/>
-    <mergeCell ref="BZ1:CA1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="BN1:BP1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="CF167:CG167"/>
-    <mergeCell ref="CF170:CG170"/>
-    <mergeCell ref="CF31:CG31"/>
-    <mergeCell ref="CF10:CG10"/>
-    <mergeCell ref="CF129:CG129"/>
-    <mergeCell ref="CF122:CG122"/>
-    <mergeCell ref="CF136:CG136"/>
-    <mergeCell ref="CF154:CG154"/>
-    <mergeCell ref="CF162:CG162"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="H2:H180">
-    <cfRule type="containsText" dxfId="173" priority="82" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="155" priority="82" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="172" priority="79" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",H25)))</formula>
+    <cfRule type="containsText" dxfId="154" priority="81" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH("E",H25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="80" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="153" priority="80" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",H25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="81" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH("E",H25)))</formula>
+    <cfRule type="containsText" dxfId="152" priority="79" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",H25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H181:H296">
-    <cfRule type="containsText" dxfId="169" priority="229" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="151" priority="232" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",H181)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="150" priority="231" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH(("E"),(H181))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="149" priority="230" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH(("P"),(H181))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="148" priority="229" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",H181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="230" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH(("P"),(H181))))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16 J26:J27 J139:J180">
+    <cfRule type="containsText" dxfId="147" priority="125" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH(("P"),(J16))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="231" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH(("E"),(H181))))</formula>
+    <cfRule type="containsText" dxfId="146" priority="126" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH(("E"),(J16))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="232" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",H181)))</formula>
+    <cfRule type="containsText" dxfId="145" priority="127" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH(("R"),(J16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="containsText" dxfId="165" priority="89" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",J17)))</formula>
+    <cfRule type="containsText" dxfId="144" priority="91" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",J17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="90" operator="containsText" text="E">
+    <cfRule type="containsText" dxfId="143" priority="90" operator="containsText" text="E">
       <formula>NOT(ISERROR(SEARCH("E",J17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="91" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",J17)))</formula>
+    <cfRule type="containsText" dxfId="142" priority="89" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",J17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:J25">
-    <cfRule type="containsText" dxfId="162" priority="75" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="141" priority="78" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",J24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="140" priority="77" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH("E",J24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="139" priority="76" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",J24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="138" priority="75" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",J24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="76" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",J24)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
+    <cfRule type="containsText" dxfId="137" priority="54" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH("E",J28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="77" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH("E",J24)))</formula>
+    <cfRule type="containsText" dxfId="136" priority="55" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",J28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="78" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",J24)))</formula>
+    <cfRule type="containsText" dxfId="135" priority="53" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",J28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="134" priority="52" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",J28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J138">
-    <cfRule type="containsText" dxfId="158" priority="56" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",J138)))</formula>
+    <cfRule type="containsText" dxfId="133" priority="58" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",J138)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="57" operator="containsText" text="E">
+    <cfRule type="containsText" dxfId="132" priority="57" operator="containsText" text="E">
       <formula>NOT(ISERROR(SEARCH("E",J138)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="58" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",J138)))</formula>
+    <cfRule type="containsText" dxfId="131" priority="56" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",J138)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J181:J296">
-    <cfRule type="containsText" dxfId="155" priority="225" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",J181)))</formula>
+    <cfRule type="containsText" dxfId="130" priority="228" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",J181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="226" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="129" priority="227" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH(("E"),(J181))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="128" priority="226" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH(("P"),(J181))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="227" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH(("E"),(J181))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="228" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",J181)))</formula>
+    <cfRule type="containsText" dxfId="127" priority="225" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",J181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M181:M296">
-    <cfRule type="containsText" dxfId="151" priority="221" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",M181)))</formula>
+    <cfRule type="containsText" dxfId="126" priority="224" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",M181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="222" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="125" priority="222" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH(("P"),(M181))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="223" operator="containsText" text="E">
+    <cfRule type="containsText" dxfId="124" priority="223" operator="containsText" text="E">
       <formula>NOT(ISERROR(SEARCH(("E"),(M181))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="224" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",M181)))</formula>
+    <cfRule type="containsText" dxfId="123" priority="221" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",M181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O181:O296">
-    <cfRule type="containsText" dxfId="147" priority="217" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",O181)))</formula>
+    <cfRule type="containsText" dxfId="122" priority="220" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",O181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="218" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="121" priority="219" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH(("E"),(O181))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="120" priority="218" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH(("P"),(O181))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="219" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH(("E"),(O181))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="220" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",O181)))</formula>
+    <cfRule type="containsText" dxfId="119" priority="217" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",O181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q181:Q296">
-    <cfRule type="containsText" dxfId="143" priority="213" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="118" priority="215" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH(("E"),(Q181))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="213" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",Q181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="214" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="116" priority="216" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",Q181)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="115" priority="214" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH(("P"),(Q181))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="215" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH(("E"),(Q181))))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:S17">
+    <cfRule type="containsText" dxfId="114" priority="9" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",S2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="216" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",Q181)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S24:S25">
+    <cfRule type="containsText" dxfId="113" priority="32" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",S24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="33" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",S24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="111" priority="34" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH("E",S24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="110" priority="35" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",S24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S27:S29">
+    <cfRule type="containsText" dxfId="109" priority="26" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH("E",S27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="108" priority="27" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",S27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="107" priority="24" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",S27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="25" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",S27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S181:S296">
-    <cfRule type="containsText" dxfId="139" priority="209" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="105" priority="209" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",S181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="210" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="104" priority="212" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",S181)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="103" priority="211" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH(("E"),(S181))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="210" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH(("P"),(S181))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="211" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH(("E"),(S181))))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U24">
+    <cfRule type="containsText" dxfId="101" priority="46" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH("E",U24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="212" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",S181)))</formula>
+    <cfRule type="containsText" dxfId="100" priority="44" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",U24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="99" priority="45" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",U24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="98" priority="47" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",U24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U28:U29">
+    <cfRule type="containsText" dxfId="97" priority="1" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",U28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="2" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",U28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="95" priority="3" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH("E",U28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="4" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",U28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U181:U296">
-    <cfRule type="containsText" dxfId="135" priority="205" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="93" priority="208" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",U181)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="92" priority="207" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH(("E"),(U181))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="91" priority="206" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH(("P"),(U181))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="90" priority="205" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",U181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="206" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH(("P"),(U181))))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W24">
+    <cfRule type="containsText" dxfId="89" priority="40" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",W24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="207" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH(("E"),(U181))))</formula>
+    <cfRule type="containsText" dxfId="88" priority="41" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",W24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="208" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",U181)))</formula>
+    <cfRule type="containsText" dxfId="87" priority="42" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH("E",W24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="86" priority="43" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",W24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W16:W23 Y16:Y23 S18:S23 U18:U23 J18:J23 AM2:AM180 E2:E296 AP5:AQ180 AO15:AO180 M16:M180 O16:O180 Q16:Q180 AA16:AA180 AE16:AE180 AG16:AG180 AI16:AI180 AK16:AK180 AC18:AC24 S26 U25:U27 W25:W28 Y25:Y180 J29:J137 S30:S180 W30:W180 U30:U180 AC26:AC180">
-    <cfRule type="containsText" dxfId="131" priority="122" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH(("P"),(E2))))</formula>
+  <conditionalFormatting sqref="W29">
+    <cfRule type="containsText" dxfId="85" priority="18" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH("E",W29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="123" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH(("E"),(E2))))</formula>
+    <cfRule type="containsText" dxfId="84" priority="19" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",W29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="124" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH(("R"),(E2))))</formula>
+    <cfRule type="containsText" dxfId="83" priority="17" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",W29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="16" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",W29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W181:W296">
-    <cfRule type="containsText" dxfId="128" priority="201" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="81" priority="203" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH(("E"),(W181))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="80" priority="202" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH(("P"),(W181))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="201" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",W181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="202" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH(("P"),(W181))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="203" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH(("E"),(W181))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="204" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="78" priority="204" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",W181)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Y24">
+    <cfRule type="containsText" dxfId="77" priority="39" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",Y24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="36" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",Y24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="37" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",Y24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="38" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH("E",Y24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Y181:Y296">
-    <cfRule type="containsText" dxfId="124" priority="197" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="73" priority="199" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH(("E"),(Y181))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="198" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH(("P"),(Y181))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="71" priority="197" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",Y181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="198" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH(("P"),(Y181))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="199" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH(("E"),(Y181))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="200" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="70" priority="200" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",Y181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA181:AA296">
-    <cfRule type="containsText" dxfId="120" priority="193" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="69" priority="196" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",AA181)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="193" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",AA181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="194" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="67" priority="194" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH(("P"),(AA181))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="195" operator="containsText" text="E">
+    <cfRule type="containsText" dxfId="66" priority="195" operator="containsText" text="E">
       <formula>NOT(ISERROR(SEARCH(("E"),(AA181))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="196" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",AA181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC16">
-    <cfRule type="containsText" dxfId="116" priority="140" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="65" priority="140" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH(("P"),(AC16))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="141" operator="containsText" text="E">
+    <cfRule type="containsText" dxfId="64" priority="141" operator="containsText" text="E">
       <formula>NOT(ISERROR(SEARCH(("E"),(AC16))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="142" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="63" priority="142" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH(("R"),(AC16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC17">
-    <cfRule type="containsText" dxfId="113" priority="86" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="62" priority="87" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH("E",AC17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="88" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",AC17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="86" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",AC17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="87" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH("E",AC17)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC25">
+    <cfRule type="containsText" dxfId="59" priority="5" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",AC25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="88" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",AC17)))</formula>
+    <cfRule type="containsText" dxfId="58" priority="7" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH("E",AC25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="8" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",AC25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="6" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",AC25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC181:AC296">
-    <cfRule type="containsText" dxfId="110" priority="189" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="55" priority="191" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH(("E"),(AC181))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="192" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",AC181)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="189" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",AC181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="190" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="52" priority="190" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH(("P"),(AC181))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="191" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH(("E"),(AC181))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="192" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",AC181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE181:AE296">
-    <cfRule type="containsText" dxfId="106" priority="185" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="51" priority="185" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",AE181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="186" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="50" priority="186" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH(("P"),(AE181))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="187" operator="containsText" text="E">
+    <cfRule type="containsText" dxfId="49" priority="187" operator="containsText" text="E">
       <formula>NOT(ISERROR(SEARCH(("E"),(AE181))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="188" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="48" priority="188" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",AE181)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AG15 AO2:AO14 M2:M15 O2:O15 Q2:Q15 W2:W15 Y2:Y15 AA2:AA15 AC2:AC15 AE2:AE15 AI2:AI15 AK2:AK15 S2:S17 U2:U17 J2:J15">
-    <cfRule type="containsText" dxfId="102" priority="107" operator="containsText" text="P">
+  <conditionalFormatting sqref="AG2:AG15 AO2:AO14 J2:J15 M2:M15 O2:O15 Q2:Q15 W2:W15 Y2:Y15 AA2:AA15 AC2:AC15 AE2:AE15 AI2:AI15 AK2:AK15 U2:U17">
+    <cfRule type="containsText" dxfId="47" priority="107" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG2:AG15">
-    <cfRule type="containsText" dxfId="101" priority="104" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="46" priority="104" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",AG2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="105" operator="containsText" text="E">
+    <cfRule type="containsText" dxfId="45" priority="105" operator="containsText" text="E">
       <formula>NOT(ISERROR(SEARCH("E",AG2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="106" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="44" priority="106" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",AG2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG16:AG180">
-    <cfRule type="containsText" dxfId="98" priority="146" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="43" priority="146" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH(("P"),(AG16))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="147" operator="containsText" text="E">
+    <cfRule type="containsText" dxfId="42" priority="147" operator="containsText" text="E">
       <formula>NOT(ISERROR(SEARCH(("E"),(AG16))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="148" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="41" priority="148" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH(("R"),(AG16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG181:AG296">
-    <cfRule type="containsText" dxfId="95" priority="181" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="40" priority="181" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",AG181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="182" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="39" priority="182" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH(("P"),(AG181))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="183" operator="containsText" text="E">
+    <cfRule type="containsText" dxfId="38" priority="183" operator="containsText" text="E">
       <formula>NOT(ISERROR(SEARCH(("E"),(AG181))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="184" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="37" priority="184" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",AG181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI181:AI296">
-    <cfRule type="containsText" dxfId="91" priority="177" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="36" priority="177" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",AI181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="178" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="35" priority="178" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH(("P"),(AI181))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="179" operator="containsText" text="E">
+    <cfRule type="containsText" dxfId="34" priority="179" operator="containsText" text="E">
       <formula>NOT(ISERROR(SEARCH(("E"),(AI181))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="180" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="33" priority="180" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",AI181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK181:AK296">
-    <cfRule type="containsText" dxfId="87" priority="173" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="32" priority="173" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",AK181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="174" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="31" priority="174" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH(("P"),(AK181))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="175" operator="containsText" text="E">
+    <cfRule type="containsText" dxfId="30" priority="175" operator="containsText" text="E">
       <formula>NOT(ISERROR(SEARCH(("E"),(AK181))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="176" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="29" priority="176" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",AK181)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16 J26:J27 J139:J180">
-    <cfRule type="containsText" dxfId="83" priority="125" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH(("P"),(J16))))</formula>
+  <conditionalFormatting sqref="AM2:AM180 E2:E296 AP5:AQ180 AO15:AO180 W16:W23 Y16:Y23 M16:M180 O16:O180 Q16:Q180 AA16:AA180 AE16:AE180 AG16:AG180 AI16:AI180 AK16:AK180 J18:J23 S18:S23 U18:U23 AC18:AC24 U25:U27 W25:W28 Y25:Y180 S26 AC26:AC180 J29:J137 S30:S180 U30:U180 W30:W180">
+    <cfRule type="containsText" dxfId="28" priority="122" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH(("P"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="126" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH(("E"),(J16))))</formula>
+    <cfRule type="containsText" dxfId="27" priority="123" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH(("E"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="127" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH(("R"),(J16))))</formula>
+    <cfRule type="containsText" dxfId="26" priority="124" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH(("R"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM181:AM296">
-    <cfRule type="containsText" dxfId="80" priority="169" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",AM181)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="170" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="25" priority="170" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH(("P"),(AM181))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="171" operator="containsText" text="E">
+    <cfRule type="containsText" dxfId="24" priority="171" operator="containsText" text="E">
       <formula>NOT(ISERROR(SEARCH(("E"),(AM181))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="172" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="23" priority="172" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",AM181)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="169" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",AM181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN15">
-    <cfRule type="containsText" dxfId="76" priority="98" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="21" priority="100" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH(("R"),(AN15))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="99" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH(("E"),(AN15))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="98" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH(("P"),(AN15))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="99" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH(("E"),(AN15))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="100" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH(("R"),(AN15))))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO2:AO14 M2:M15 O2:O15 Q2:Q15 W2:W15 Y2:Y15 AA2:AA15 AC2:AC15 AE2:AE15 AG2:AG15 AI2:AI15 AK2:AK15 U2:U17 H2:H24 H26:H180 S2:S17 J2:J15">
-    <cfRule type="containsText" dxfId="73" priority="108" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH("E",H2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="109" operator="containsText" text="R">
+  <conditionalFormatting sqref="AO2:AO14 J2:J15 M2:M15 O2:O15 Q2:Q15 W2:W15 Y2:Y15 AA2:AA15 AC2:AC15 AE2:AE15 AG2:AG15 AI2:AI15 AK2:AK15 S2:S17 U2:U17 H2:H24 H26:H180">
+    <cfRule type="containsText" dxfId="18" priority="109" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AO2:AO14 J2:J15 M2:M15 O2:O15 Q2:Q15 W2:W15 Y2:Y15 AA2:AA15 AC2:AC15 AE2:AE15 AG2:AG15 AI2:AI15 AK2:AK15 U2:U17 H2:H24 H26:H180 S2:S17">
+    <cfRule type="containsText" dxfId="17" priority="108" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH("E",H2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AO181:AO296">
-    <cfRule type="containsText" dxfId="71" priority="165" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",AO181)))</formula>
+    <cfRule type="containsText" dxfId="16" priority="168" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",AO181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="166" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="15" priority="167" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH(("E"),(AO181))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="166" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH(("P"),(AO181))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="167" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH(("E"),(AO181))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="168" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",AO181)))</formula>
+    <cfRule type="containsText" dxfId="13" priority="165" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",AO181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP181:AP296 AO297:AQ297">
-    <cfRule type="containsText" dxfId="67" priority="914" operator="containsText" text="E">
+    <cfRule type="containsText" dxfId="12" priority="1114" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",AO181)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="914" operator="containsText" text="E">
       <formula>NOT(ISERROR(SEARCH("E",AO181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="1112" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="10" priority="1112" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",AO181)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="1114" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",AO181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP2:AQ3">
-    <cfRule type="containsText" dxfId="64" priority="110" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="9" priority="112" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH(("R"),(AP2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="110" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH(("P"),(AP2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="111" operator="containsText" text="E">
+    <cfRule type="containsText" dxfId="7" priority="111" operator="containsText" text="E">
       <formula>NOT(ISERROR(SEARCH(("E"),(AP2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="112" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH(("R"),(AP2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ4">
-    <cfRule type="containsText" dxfId="61" priority="101" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",AQ4)))</formula>
+    <cfRule type="containsText" dxfId="6" priority="103" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",AQ4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="102" operator="containsText" text="E">
+    <cfRule type="containsText" dxfId="5" priority="102" operator="containsText" text="E">
       <formula>NOT(ISERROR(SEARCH("E",AQ4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="103" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",AQ4)))</formula>
+    <cfRule type="containsText" dxfId="4" priority="101" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",AQ4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ181:AQ296">
-    <cfRule type="containsText" dxfId="58" priority="161" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",AQ181)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="162" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="3" priority="162" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH(("P"),(AQ181))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="163" operator="containsText" text="E">
+    <cfRule type="containsText" dxfId="2" priority="164" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",AQ181)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="163" operator="containsText" text="E">
       <formula>NOT(ISERROR(SEARCH(("E"),(AQ181))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="164" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",AQ181)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="54" priority="52" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",J28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="53" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",J28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="54" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH("E",J28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="55" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",J28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S24">
-    <cfRule type="containsText" dxfId="50" priority="48" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",S24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="49" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",S24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="50" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH("E",S24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="51" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",S24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U24">
-    <cfRule type="containsText" dxfId="46" priority="44" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",U24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",U24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH("E",U24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",U24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W24">
-    <cfRule type="containsText" dxfId="42" priority="40" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",W24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",W24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH("E",W24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="43" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",W24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y24">
-    <cfRule type="containsText" dxfId="38" priority="36" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",Y24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="37" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",Y24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH("E",Y24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="39" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",Y24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S25">
-    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",S25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",S25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH("E",S25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",S25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S27:S28">
-    <cfRule type="containsText" dxfId="30" priority="28" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",S27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",S27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH("E",S27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="31" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",S27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S29">
-    <cfRule type="containsText" dxfId="26" priority="24" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",S29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",S29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH("E",S29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="27" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",S29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U29">
-    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",U29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",U29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH("E",U29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",U29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W29">
-    <cfRule type="containsText" dxfId="18" priority="16" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",W29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",W29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH("E",W29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="19" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",W29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2">
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",S2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3">
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",S3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S4">
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",S4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S5">
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",S5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S6">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",S6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S7">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",S7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S8">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",S8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC25">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",AC25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",AC25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH("E",AC25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",AC25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U28">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",U28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",U28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH("E",U28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",U28)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="161" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",AQ181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -56427,23 +56138,23 @@
       <selection pane="bottomRight" activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="9.875" customWidth="1"/>
-    <col min="5" max="8" width="8.625" customWidth="1"/>
-    <col min="9" max="22" width="8.5" customWidth="1"/>
-    <col min="23" max="23" width="11.5" customWidth="1"/>
-    <col min="24" max="24" width="10.125" customWidth="1"/>
+    <col min="2" max="3" width="11.453125" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" customWidth="1"/>
+    <col min="5" max="8" width="8.6328125" customWidth="1"/>
+    <col min="9" max="22" width="8.453125" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" customWidth="1"/>
+    <col min="24" max="24" width="10.08984375" customWidth="1"/>
     <col min="25" max="25" width="16" customWidth="1"/>
-    <col min="26" max="26" width="6.75" customWidth="1"/>
-    <col min="27" max="27" width="6.625" customWidth="1"/>
-    <col min="28" max="28" width="7.625" customWidth="1"/>
-    <col min="29" max="29" width="11.875" customWidth="1"/>
+    <col min="26" max="26" width="6.7265625" customWidth="1"/>
+    <col min="27" max="27" width="6.6328125" customWidth="1"/>
+    <col min="28" max="28" width="7.6328125" customWidth="1"/>
+    <col min="29" max="29" width="11.90625" customWidth="1"/>
     <col min="30" max="30" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="163" t="s">
         <v>135</v>
       </c>
@@ -56477,7 +56188,7 @@
       <c r="AC1" s="40"/>
       <c r="AD1" s="40"/>
     </row>
-    <row r="2" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" ht="27.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="164" t="s">
         <v>145</v>
       </c>
@@ -56535,7 +56246,7 @@
       <c r="AC2" s="40"/>
       <c r="AD2" s="40"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" s="165"/>
       <c r="B3" s="165"/>
       <c r="C3" s="103"/>
@@ -56609,7 +56320,7 @@
       <c r="AC3" s="40"/>
       <c r="AD3" s="40"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="131">
         <v>3</v>
       </c>
@@ -56680,7 +56391,7 @@
       <c r="AC4" s="40"/>
       <c r="AD4" s="40"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="133">
         <v>3</v>
       </c>
@@ -56743,7 +56454,7 @@
       <c r="AC5" s="40"/>
       <c r="AD5" s="40"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="131">
         <v>2</v>
       </c>
@@ -56812,7 +56523,7 @@
       <c r="AC6" s="40"/>
       <c r="AD6" s="40"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="133">
         <v>6</v>
       </c>
@@ -56881,7 +56592,7 @@
       <c r="AC7" s="40"/>
       <c r="AD7" s="40"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="131">
         <v>7</v>
       </c>
@@ -56960,7 +56671,7 @@
       <c r="AC8" s="40"/>
       <c r="AD8" s="40"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="133">
         <v>7</v>
       </c>
@@ -57019,7 +56730,7 @@
       <c r="AC9" s="40"/>
       <c r="AD9" s="40"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="131">
         <v>8</v>
       </c>
@@ -57094,7 +56805,7 @@
       <c r="AC10" s="40"/>
       <c r="AD10" s="40"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="133">
         <v>8</v>
       </c>
@@ -57153,7 +56864,7 @@
       <c r="AC11" s="40"/>
       <c r="AD11" s="40"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="131">
         <v>9</v>
       </c>
@@ -57226,7 +56937,7 @@
       <c r="AC12" s="40"/>
       <c r="AD12" s="40"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="133">
         <v>10</v>
       </c>
@@ -57299,7 +57010,7 @@
       <c r="AC13" s="40"/>
       <c r="AD13" s="40"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="131">
         <v>10</v>
       </c>
@@ -57358,7 +57069,7 @@
       <c r="AC14" s="40"/>
       <c r="AD14" s="40"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="133">
         <v>11</v>
       </c>
@@ -57427,7 +57138,7 @@
       <c r="AC15" s="40"/>
       <c r="AD15" s="40"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="131">
         <v>13</v>
       </c>
@@ -57496,7 +57207,7 @@
       <c r="AC16" s="40"/>
       <c r="AD16" s="40"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" s="133">
         <v>12</v>
       </c>
@@ -57569,7 +57280,7 @@
       <c r="AC17" s="40"/>
       <c r="AD17" s="40"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" s="131">
         <v>5</v>
       </c>
@@ -57640,7 +57351,7 @@
       <c r="AC18" s="40"/>
       <c r="AD18" s="40"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" s="133">
         <v>5</v>
       </c>
@@ -57703,7 +57414,7 @@
       <c r="AC19" s="40"/>
       <c r="AD19" s="40"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" s="131">
         <v>4</v>
       </c>
@@ -57774,7 +57485,7 @@
       <c r="AC20" s="40"/>
       <c r="AD20" s="40"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" s="133">
         <v>4</v>
       </c>
@@ -57837,7 +57548,7 @@
       <c r="AC21" s="40"/>
       <c r="AD21" s="40"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" s="131">
         <v>1</v>
       </c>
@@ -57898,7 +57609,7 @@
       <c r="AC22" s="40"/>
       <c r="AD22" s="40"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" s="109"/>
       <c r="B23" s="109"/>
       <c r="C23" s="125"/>
@@ -57949,7 +57660,7 @@
       <c r="AC23" s="40"/>
       <c r="AD23" s="40"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B24" s="108"/>
       <c r="C24" s="124"/>
       <c r="D24" s="124"/>
@@ -57995,7 +57706,7 @@
       <c r="AC24" s="40"/>
       <c r="AD24" s="40"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25" s="109"/>
       <c r="B25" s="109"/>
       <c r="C25" s="125"/>
@@ -58046,7 +57757,7 @@
       <c r="AC25" s="40"/>
       <c r="AD25" s="40"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B26" s="108"/>
       <c r="C26" s="124"/>
       <c r="D26" s="124"/>
@@ -58096,7 +57807,7 @@
       <c r="AC26" s="40"/>
       <c r="AD26" s="40"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A27" s="109"/>
       <c r="B27" s="109"/>
       <c r="C27" s="125"/>
@@ -58147,7 +57858,7 @@
       <c r="AC27" s="40"/>
       <c r="AD27" s="40"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B28" s="108"/>
       <c r="C28" s="124"/>
       <c r="D28" s="124"/>
@@ -58197,7 +57908,7 @@
       <c r="AC28" s="40"/>
       <c r="AD28" s="40"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29" s="109"/>
       <c r="B29" s="109"/>
       <c r="C29" s="125"/>
@@ -58248,7 +57959,7 @@
       <c r="AC29" s="40"/>
       <c r="AD29" s="40"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B30" s="108"/>
       <c r="C30" s="124"/>
       <c r="D30" s="124"/>
@@ -58298,7 +58009,7 @@
       <c r="AC30" s="40"/>
       <c r="AD30" s="40"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A31" s="109"/>
       <c r="B31" s="109"/>
       <c r="C31" s="125"/>
@@ -58349,7 +58060,7 @@
       <c r="AC31" s="40"/>
       <c r="AD31" s="40"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B32" s="108"/>
       <c r="C32" s="124"/>
       <c r="D32" s="124"/>
@@ -58399,7 +58110,7 @@
       <c r="AC32" s="40"/>
       <c r="AD32" s="40"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A33" s="109"/>
       <c r="B33" s="109"/>
       <c r="C33" s="125"/>
@@ -58446,7 +58157,7 @@
       <c r="AC33" s="40"/>
       <c r="AD33" s="40"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B34" s="108"/>
       <c r="C34" s="124"/>
       <c r="D34" s="124"/>
@@ -58496,7 +58207,7 @@
       <c r="AC34" s="40"/>
       <c r="AD34" s="40"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A35" s="109"/>
       <c r="B35" s="109"/>
       <c r="C35" s="125"/>
@@ -58547,7 +58258,7 @@
       <c r="AC35" s="40"/>
       <c r="AD35" s="40"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B36" s="108"/>
       <c r="C36" s="124"/>
       <c r="D36" s="124"/>
@@ -58597,7 +58308,7 @@
       <c r="AC36" s="40"/>
       <c r="AD36" s="40"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A37" s="109"/>
       <c r="B37" s="109"/>
       <c r="C37" s="125"/>
@@ -58648,7 +58359,7 @@
       <c r="AC37" s="40"/>
       <c r="AD37" s="40"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B38" s="108"/>
       <c r="C38" s="124"/>
       <c r="D38" s="124"/>
@@ -58698,7 +58409,7 @@
       <c r="AC38" s="40"/>
       <c r="AD38" s="40"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A39" s="109"/>
       <c r="B39" s="109"/>
       <c r="C39" s="125"/>
@@ -58749,7 +58460,7 @@
       <c r="AC39" s="40"/>
       <c r="AD39" s="40"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B40" s="108"/>
       <c r="C40" s="124"/>
       <c r="D40" s="124"/>
@@ -58799,7 +58510,7 @@
       <c r="AC40" s="40"/>
       <c r="AD40" s="40"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A41" s="109"/>
       <c r="B41" s="109"/>
       <c r="C41" s="104"/>
@@ -58850,7 +58561,7 @@
       <c r="AC41" s="40"/>
       <c r="AD41" s="40"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B42" s="108"/>
       <c r="C42" s="96"/>
       <c r="D42" s="96"/>
@@ -58900,7 +58611,7 @@
       <c r="AC42" s="40"/>
       <c r="AD42" s="40"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A43" s="109"/>
       <c r="B43" s="109"/>
       <c r="C43" s="104"/>
@@ -58947,7 +58658,7 @@
       <c r="AC43" s="40"/>
       <c r="AD43" s="40"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B44" s="108"/>
       <c r="C44" s="96"/>
       <c r="D44" s="96"/>
@@ -58995,7 +58706,7 @@
       <c r="AC44" s="40"/>
       <c r="AD44" s="40"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A45" s="109"/>
       <c r="B45" s="109"/>
       <c r="C45" s="104"/>
@@ -59046,7 +58757,7 @@
       <c r="AC45" s="40"/>
       <c r="AD45" s="40"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B46" s="108"/>
       <c r="C46" s="96"/>
       <c r="D46" s="96"/>
@@ -59096,7 +58807,7 @@
       <c r="AC46" s="40"/>
       <c r="AD46" s="40"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A47" s="109"/>
       <c r="B47" s="109"/>
       <c r="C47" s="104"/>
@@ -59147,7 +58858,7 @@
       <c r="AC47" s="40"/>
       <c r="AD47" s="40"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B48" s="108"/>
       <c r="C48" s="96"/>
       <c r="D48" s="96"/>
@@ -59197,7 +58908,7 @@
       <c r="AC48" s="40"/>
       <c r="AD48" s="40"/>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A49" s="109"/>
       <c r="B49" s="109"/>
       <c r="C49" s="104"/>
@@ -59248,7 +58959,7 @@
       <c r="AC49" s="40"/>
       <c r="AD49" s="40"/>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B50" s="108"/>
       <c r="C50" s="96"/>
       <c r="D50" s="96"/>
@@ -59298,7 +59009,7 @@
       <c r="AC50" s="40"/>
       <c r="AD50" s="40"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A51" s="109"/>
       <c r="B51" s="109"/>
       <c r="C51" s="104"/>
@@ -59349,7 +59060,7 @@
       <c r="AC51" s="40"/>
       <c r="AD51" s="40"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B52" s="108"/>
       <c r="C52" s="96"/>
       <c r="D52" s="96"/>
@@ -59399,7 +59110,7 @@
       <c r="AC52" s="40"/>
       <c r="AD52" s="40"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A53" s="109"/>
       <c r="B53" s="109"/>
       <c r="C53" s="104"/>
@@ -59450,7 +59161,7 @@
       <c r="AC53" s="40"/>
       <c r="AD53" s="40"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B54" s="108"/>
       <c r="C54" s="96"/>
       <c r="D54" s="96"/>
@@ -59500,7 +59211,7 @@
       <c r="AC54" s="40"/>
       <c r="AD54" s="40"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A55" s="109"/>
       <c r="B55" s="109"/>
       <c r="C55" s="104"/>
@@ -59551,7 +59262,7 @@
       <c r="AC55" s="40"/>
       <c r="AD55" s="40"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B56" s="108"/>
       <c r="C56" s="96"/>
       <c r="D56" s="96"/>
@@ -59601,7 +59312,7 @@
       <c r="AC56" s="40"/>
       <c r="AD56" s="40"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A57" s="109"/>
       <c r="B57" s="109"/>
       <c r="C57" s="104"/>
@@ -59652,7 +59363,7 @@
       <c r="AC57" s="40"/>
       <c r="AD57" s="40"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B58" s="108"/>
       <c r="C58" s="96"/>
       <c r="D58" s="96"/>
@@ -59702,7 +59413,7 @@
       <c r="AC58" s="40"/>
       <c r="AD58" s="40"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A59" s="109"/>
       <c r="B59" s="109"/>
       <c r="C59" s="104"/>
@@ -59753,7 +59464,7 @@
       <c r="AC59" s="40"/>
       <c r="AD59" s="40"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B60" s="108"/>
       <c r="C60" s="96"/>
       <c r="D60" s="96"/>
@@ -59803,7 +59514,7 @@
       <c r="AC60" s="40"/>
       <c r="AD60" s="40"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A61" s="109"/>
       <c r="B61" s="109"/>
       <c r="C61" s="104"/>
@@ -59854,7 +59565,7 @@
       <c r="AC61" s="40"/>
       <c r="AD61" s="40"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B62" s="108"/>
       <c r="C62" s="96"/>
       <c r="D62" s="96"/>
@@ -59904,7 +59615,7 @@
       <c r="AC62" s="40"/>
       <c r="AD62" s="40"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A63" s="109"/>
       <c r="B63" s="109"/>
       <c r="C63" s="104"/>
@@ -59955,7 +59666,7 @@
       <c r="AC63" s="40"/>
       <c r="AD63" s="40"/>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B64" s="108"/>
       <c r="C64" s="96"/>
       <c r="D64" s="96"/>
@@ -60005,7 +59716,7 @@
       <c r="AC64" s="40"/>
       <c r="AD64" s="40"/>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A65" s="109"/>
       <c r="B65" s="109"/>
       <c r="C65" s="104"/>
@@ -60056,7 +59767,7 @@
       <c r="AC65" s="40"/>
       <c r="AD65" s="40"/>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B66" s="108"/>
       <c r="C66" s="96"/>
       <c r="D66" s="96"/>
@@ -60106,7 +59817,7 @@
       <c r="AC66" s="40"/>
       <c r="AD66" s="40"/>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A67" s="109"/>
       <c r="B67" s="109"/>
       <c r="C67" s="104"/>
@@ -60157,7 +59868,7 @@
       <c r="AC67" s="40"/>
       <c r="AD67" s="40"/>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B68" s="108"/>
       <c r="C68" s="96"/>
       <c r="D68" s="96"/>
@@ -60207,7 +59918,7 @@
       <c r="AC68" s="40"/>
       <c r="AD68" s="40"/>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A69" s="109"/>
       <c r="B69" s="109"/>
       <c r="C69" s="104"/>
@@ -60258,7 +59969,7 @@
       <c r="AC69" s="40"/>
       <c r="AD69" s="40"/>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B70" s="108"/>
       <c r="C70" s="96"/>
       <c r="D70" s="96"/>
@@ -60308,7 +60019,7 @@
       <c r="AC70" s="40"/>
       <c r="AD70" s="40"/>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A71" s="109"/>
       <c r="B71" s="109"/>
       <c r="C71" s="104"/>
@@ -60359,7 +60070,7 @@
       <c r="AC71" s="40"/>
       <c r="AD71" s="40"/>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B72" s="108"/>
       <c r="C72" s="96"/>
       <c r="D72" s="96"/>
@@ -60409,7 +60120,7 @@
       <c r="AC72" s="40"/>
       <c r="AD72" s="40"/>
     </row>
-    <row r="73" spans="1:30" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30" ht="46.75" x14ac:dyDescent="0.35">
       <c r="B73" s="105" t="s">
         <v>136</v>
       </c>
@@ -60497,7 +60208,7 @@
       <c r="AC73" s="40"/>
       <c r="AD73" s="40"/>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B74" s="130" t="s">
         <v>143</v>
       </c>
@@ -60520,7 +60231,7 @@
       <c r="AC74" s="40"/>
       <c r="AD74" s="40"/>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B75" s="130"/>
       <c r="C75" s="130"/>
       <c r="D75" s="117">
@@ -60545,7 +60256,7 @@
       <c r="AC75" s="40"/>
       <c r="AD75" s="40"/>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B76" s="130" t="s">
         <v>144</v>
       </c>
@@ -60568,7 +60279,7 @@
       <c r="AC76" s="40"/>
       <c r="AD76" s="40"/>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B77" s="130"/>
       <c r="C77" s="130"/>
       <c r="D77" s="118">
@@ -60593,735 +60304,735 @@
       <c r="AC77" s="40"/>
       <c r="AD77" s="40"/>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.35">
       <c r="Z78" s="40"/>
       <c r="AA78" s="40"/>
       <c r="AB78" s="40"/>
       <c r="AC78" s="40"/>
       <c r="AD78" s="40"/>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.35">
       <c r="Z79" s="40"/>
       <c r="AA79" s="40"/>
       <c r="AB79" s="40"/>
       <c r="AC79" s="40"/>
       <c r="AD79" s="40"/>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.35">
       <c r="Z80" s="40"/>
       <c r="AA80" s="40"/>
       <c r="AB80" s="40"/>
       <c r="AC80" s="40"/>
       <c r="AD80" s="40"/>
     </row>
-    <row r="81" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="81" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z81" s="40"/>
       <c r="AA81" s="40"/>
       <c r="AB81" s="40"/>
       <c r="AC81" s="40"/>
       <c r="AD81" s="40"/>
     </row>
-    <row r="82" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="82" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z82" s="40"/>
       <c r="AA82" s="40"/>
       <c r="AB82" s="40"/>
       <c r="AC82" s="40"/>
       <c r="AD82" s="40"/>
     </row>
-    <row r="83" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="83" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z83" s="40"/>
       <c r="AA83" s="40"/>
       <c r="AB83" s="40"/>
       <c r="AC83" s="40"/>
       <c r="AD83" s="40"/>
     </row>
-    <row r="84" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="84" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z84" s="40"/>
       <c r="AA84" s="40"/>
       <c r="AB84" s="40"/>
       <c r="AC84" s="40"/>
       <c r="AD84" s="40"/>
     </row>
-    <row r="85" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="85" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z85" s="40"/>
       <c r="AA85" s="40"/>
       <c r="AB85" s="40"/>
       <c r="AC85" s="40"/>
       <c r="AD85" s="40"/>
     </row>
-    <row r="86" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="86" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z86" s="40"/>
       <c r="AA86" s="40"/>
       <c r="AB86" s="40"/>
       <c r="AC86" s="40"/>
       <c r="AD86" s="40"/>
     </row>
-    <row r="87" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="87" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z87" s="40"/>
       <c r="AA87" s="40"/>
       <c r="AB87" s="40"/>
       <c r="AC87" s="40"/>
       <c r="AD87" s="40"/>
     </row>
-    <row r="88" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="88" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z88" s="40"/>
       <c r="AA88" s="40"/>
       <c r="AB88" s="40"/>
       <c r="AC88" s="40"/>
       <c r="AD88" s="40"/>
     </row>
-    <row r="89" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="89" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z89" s="40"/>
       <c r="AA89" s="40"/>
       <c r="AB89" s="40"/>
       <c r="AC89" s="40"/>
       <c r="AD89" s="40"/>
     </row>
-    <row r="90" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="90" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z90" s="40"/>
       <c r="AA90" s="40"/>
       <c r="AB90" s="40"/>
       <c r="AC90" s="40"/>
       <c r="AD90" s="40"/>
     </row>
-    <row r="91" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="91" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z91" s="40"/>
       <c r="AA91" s="40"/>
       <c r="AB91" s="40"/>
       <c r="AC91" s="40"/>
       <c r="AD91" s="40"/>
     </row>
-    <row r="92" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="92" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z92" s="40"/>
       <c r="AA92" s="40"/>
       <c r="AB92" s="40"/>
       <c r="AC92" s="40"/>
       <c r="AD92" s="40"/>
     </row>
-    <row r="93" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="93" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z93" s="40"/>
       <c r="AA93" s="40"/>
       <c r="AB93" s="40"/>
       <c r="AC93" s="40"/>
       <c r="AD93" s="40"/>
     </row>
-    <row r="94" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="94" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z94" s="40"/>
       <c r="AA94" s="40"/>
       <c r="AB94" s="40"/>
       <c r="AC94" s="40"/>
       <c r="AD94" s="40"/>
     </row>
-    <row r="95" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="95" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z95" s="40"/>
       <c r="AA95" s="40"/>
       <c r="AB95" s="40"/>
       <c r="AC95" s="40"/>
       <c r="AD95" s="40"/>
     </row>
-    <row r="96" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="96" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z96" s="40"/>
       <c r="AA96" s="40"/>
       <c r="AB96" s="40"/>
       <c r="AC96" s="40"/>
       <c r="AD96" s="40"/>
     </row>
-    <row r="97" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="97" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z97" s="40"/>
       <c r="AA97" s="40"/>
       <c r="AB97" s="40"/>
       <c r="AC97" s="40"/>
       <c r="AD97" s="40"/>
     </row>
-    <row r="98" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="98" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z98" s="40"/>
       <c r="AA98" s="40"/>
       <c r="AB98" s="40"/>
       <c r="AC98" s="40"/>
       <c r="AD98" s="40"/>
     </row>
-    <row r="99" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="99" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z99" s="40"/>
       <c r="AA99" s="40"/>
       <c r="AB99" s="40"/>
       <c r="AC99" s="40"/>
       <c r="AD99" s="40"/>
     </row>
-    <row r="100" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="100" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z100" s="40"/>
       <c r="AA100" s="40"/>
       <c r="AB100" s="40"/>
       <c r="AC100" s="40"/>
       <c r="AD100" s="40"/>
     </row>
-    <row r="101" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="101" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z101" s="40"/>
       <c r="AA101" s="40"/>
       <c r="AB101" s="40"/>
       <c r="AC101" s="40"/>
       <c r="AD101" s="40"/>
     </row>
-    <row r="102" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="102" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z102" s="40"/>
       <c r="AA102" s="40"/>
       <c r="AB102" s="40"/>
       <c r="AC102" s="40"/>
       <c r="AD102" s="40"/>
     </row>
-    <row r="103" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="103" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z103" s="40"/>
       <c r="AA103" s="40"/>
       <c r="AB103" s="40"/>
       <c r="AC103" s="40"/>
       <c r="AD103" s="40"/>
     </row>
-    <row r="104" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="104" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z104" s="40"/>
       <c r="AA104" s="40"/>
       <c r="AB104" s="40"/>
       <c r="AC104" s="40"/>
       <c r="AD104" s="40"/>
     </row>
-    <row r="105" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="105" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z105" s="40"/>
       <c r="AA105" s="40"/>
       <c r="AB105" s="40"/>
       <c r="AC105" s="40"/>
       <c r="AD105" s="40"/>
     </row>
-    <row r="106" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="106" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z106" s="40"/>
       <c r="AA106" s="40"/>
       <c r="AB106" s="40"/>
       <c r="AC106" s="40"/>
       <c r="AD106" s="40"/>
     </row>
-    <row r="107" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="107" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z107" s="40"/>
       <c r="AA107" s="40"/>
       <c r="AB107" s="40"/>
       <c r="AC107" s="40"/>
       <c r="AD107" s="40"/>
     </row>
-    <row r="108" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="108" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z108" s="40"/>
       <c r="AA108" s="40"/>
       <c r="AB108" s="40"/>
       <c r="AC108" s="40"/>
       <c r="AD108" s="40"/>
     </row>
-    <row r="109" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="109" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z109" s="40"/>
       <c r="AA109" s="40"/>
       <c r="AB109" s="40"/>
       <c r="AC109" s="40"/>
       <c r="AD109" s="40"/>
     </row>
-    <row r="110" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="110" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z110" s="40"/>
       <c r="AA110" s="40"/>
       <c r="AB110" s="40"/>
       <c r="AC110" s="40"/>
       <c r="AD110" s="40"/>
     </row>
-    <row r="111" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="111" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z111" s="40"/>
       <c r="AA111" s="40"/>
       <c r="AB111" s="40"/>
       <c r="AC111" s="40"/>
       <c r="AD111" s="40"/>
     </row>
-    <row r="112" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="112" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z112" s="40"/>
       <c r="AA112" s="40"/>
       <c r="AB112" s="40"/>
       <c r="AC112" s="40"/>
       <c r="AD112" s="40"/>
     </row>
-    <row r="113" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="113" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z113" s="40"/>
       <c r="AA113" s="40"/>
       <c r="AB113" s="40"/>
       <c r="AC113" s="40"/>
       <c r="AD113" s="40"/>
     </row>
-    <row r="114" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="114" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z114" s="40"/>
       <c r="AA114" s="40"/>
       <c r="AB114" s="40"/>
       <c r="AC114" s="40"/>
       <c r="AD114" s="40"/>
     </row>
-    <row r="115" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="115" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z115" s="40"/>
       <c r="AA115" s="40"/>
       <c r="AB115" s="40"/>
       <c r="AC115" s="40"/>
       <c r="AD115" s="40"/>
     </row>
-    <row r="116" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="116" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z116" s="40"/>
       <c r="AA116" s="40"/>
       <c r="AB116" s="40"/>
       <c r="AC116" s="40"/>
       <c r="AD116" s="40"/>
     </row>
-    <row r="117" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="117" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z117" s="40"/>
       <c r="AA117" s="40"/>
       <c r="AB117" s="40"/>
       <c r="AC117" s="40"/>
       <c r="AD117" s="40"/>
     </row>
-    <row r="118" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="118" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z118" s="40"/>
       <c r="AA118" s="40"/>
       <c r="AB118" s="40"/>
       <c r="AC118" s="40"/>
       <c r="AD118" s="40"/>
     </row>
-    <row r="119" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="119" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z119" s="40"/>
       <c r="AA119" s="40"/>
       <c r="AB119" s="40"/>
       <c r="AC119" s="40"/>
       <c r="AD119" s="40"/>
     </row>
-    <row r="120" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="120" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z120" s="40"/>
       <c r="AA120" s="40"/>
       <c r="AB120" s="40"/>
       <c r="AC120" s="40"/>
       <c r="AD120" s="40"/>
     </row>
-    <row r="121" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="121" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z121" s="40"/>
       <c r="AA121" s="40"/>
       <c r="AB121" s="40"/>
       <c r="AC121" s="40"/>
       <c r="AD121" s="40"/>
     </row>
-    <row r="122" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="122" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z122" s="40"/>
       <c r="AA122" s="40"/>
       <c r="AB122" s="40"/>
       <c r="AC122" s="40"/>
       <c r="AD122" s="40"/>
     </row>
-    <row r="123" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="123" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z123" s="40"/>
       <c r="AA123" s="40"/>
       <c r="AB123" s="40"/>
       <c r="AC123" s="40"/>
       <c r="AD123" s="40"/>
     </row>
-    <row r="124" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="124" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z124" s="40"/>
       <c r="AA124" s="40"/>
       <c r="AB124" s="40"/>
       <c r="AC124" s="40"/>
       <c r="AD124" s="40"/>
     </row>
-    <row r="125" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="125" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z125" s="40"/>
       <c r="AA125" s="40"/>
       <c r="AB125" s="40"/>
       <c r="AC125" s="40"/>
       <c r="AD125" s="40"/>
     </row>
-    <row r="126" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="126" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z126" s="40"/>
       <c r="AA126" s="40"/>
       <c r="AB126" s="40"/>
       <c r="AC126" s="40"/>
       <c r="AD126" s="40"/>
     </row>
-    <row r="127" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="127" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z127" s="40"/>
       <c r="AA127" s="40"/>
       <c r="AB127" s="40"/>
       <c r="AC127" s="40"/>
       <c r="AD127" s="40"/>
     </row>
-    <row r="128" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="128" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z128" s="40"/>
       <c r="AA128" s="40"/>
       <c r="AB128" s="40"/>
       <c r="AC128" s="40"/>
       <c r="AD128" s="40"/>
     </row>
-    <row r="129" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="129" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z129" s="40"/>
       <c r="AA129" s="40"/>
       <c r="AB129" s="40"/>
       <c r="AC129" s="40"/>
       <c r="AD129" s="40"/>
     </row>
-    <row r="130" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="130" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z130" s="40"/>
       <c r="AA130" s="40"/>
       <c r="AB130" s="40"/>
       <c r="AC130" s="40"/>
       <c r="AD130" s="40"/>
     </row>
-    <row r="131" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="131" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z131" s="40"/>
       <c r="AA131" s="40"/>
       <c r="AB131" s="40"/>
       <c r="AC131" s="40"/>
       <c r="AD131" s="40"/>
     </row>
-    <row r="132" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="132" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z132" s="40"/>
       <c r="AA132" s="40"/>
       <c r="AB132" s="40"/>
       <c r="AC132" s="40"/>
       <c r="AD132" s="40"/>
     </row>
-    <row r="133" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="133" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z133" s="40"/>
       <c r="AA133" s="40"/>
       <c r="AB133" s="40"/>
       <c r="AC133" s="40"/>
       <c r="AD133" s="40"/>
     </row>
-    <row r="134" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="134" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z134" s="40"/>
       <c r="AA134" s="40"/>
       <c r="AB134" s="40"/>
       <c r="AC134" s="40"/>
       <c r="AD134" s="40"/>
     </row>
-    <row r="135" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="135" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z135" s="40"/>
       <c r="AA135" s="40"/>
       <c r="AB135" s="40"/>
       <c r="AC135" s="40"/>
       <c r="AD135" s="40"/>
     </row>
-    <row r="136" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="136" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z136" s="40"/>
       <c r="AA136" s="40"/>
       <c r="AB136" s="40"/>
       <c r="AC136" s="40"/>
       <c r="AD136" s="40"/>
     </row>
-    <row r="137" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="137" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z137" s="40"/>
       <c r="AA137" s="40"/>
       <c r="AB137" s="40"/>
       <c r="AC137" s="40"/>
       <c r="AD137" s="40"/>
     </row>
-    <row r="138" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="138" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z138" s="40"/>
       <c r="AA138" s="40"/>
       <c r="AB138" s="40"/>
       <c r="AC138" s="40"/>
       <c r="AD138" s="40"/>
     </row>
-    <row r="139" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="139" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z139" s="40"/>
       <c r="AA139" s="40"/>
       <c r="AB139" s="40"/>
       <c r="AC139" s="40"/>
       <c r="AD139" s="40"/>
     </row>
-    <row r="140" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="140" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z140" s="40"/>
       <c r="AA140" s="40"/>
       <c r="AB140" s="40"/>
       <c r="AC140" s="40"/>
       <c r="AD140" s="40"/>
     </row>
-    <row r="141" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="141" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z141" s="40"/>
       <c r="AA141" s="40"/>
       <c r="AB141" s="40"/>
       <c r="AC141" s="40"/>
       <c r="AD141" s="40"/>
     </row>
-    <row r="142" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="142" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z142" s="40"/>
       <c r="AA142" s="40"/>
       <c r="AB142" s="40"/>
       <c r="AC142" s="40"/>
       <c r="AD142" s="40"/>
     </row>
-    <row r="143" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="143" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z143" s="40"/>
       <c r="AA143" s="40"/>
       <c r="AB143" s="40"/>
       <c r="AC143" s="40"/>
       <c r="AD143" s="40"/>
     </row>
-    <row r="144" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="144" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z144" s="40"/>
       <c r="AA144" s="40"/>
       <c r="AB144" s="40"/>
       <c r="AC144" s="40"/>
       <c r="AD144" s="40"/>
     </row>
-    <row r="145" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="145" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z145" s="40"/>
       <c r="AA145" s="40"/>
       <c r="AB145" s="40"/>
       <c r="AC145" s="40"/>
       <c r="AD145" s="40"/>
     </row>
-    <row r="146" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="146" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z146" s="40"/>
       <c r="AA146" s="40"/>
       <c r="AB146" s="40"/>
       <c r="AC146" s="40"/>
       <c r="AD146" s="40"/>
     </row>
-    <row r="147" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="147" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z147" s="40"/>
       <c r="AA147" s="40"/>
       <c r="AB147" s="40"/>
       <c r="AC147" s="40"/>
       <c r="AD147" s="40"/>
     </row>
-    <row r="148" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="148" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z148" s="40"/>
       <c r="AA148" s="40"/>
       <c r="AB148" s="40"/>
       <c r="AC148" s="40"/>
       <c r="AD148" s="40"/>
     </row>
-    <row r="149" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="149" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z149" s="40"/>
       <c r="AA149" s="40"/>
       <c r="AB149" s="40"/>
       <c r="AC149" s="40"/>
       <c r="AD149" s="40"/>
     </row>
-    <row r="150" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="150" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z150" s="40"/>
       <c r="AA150" s="40"/>
       <c r="AB150" s="40"/>
       <c r="AC150" s="40"/>
       <c r="AD150" s="40"/>
     </row>
-    <row r="151" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="151" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z151" s="40"/>
       <c r="AA151" s="40"/>
       <c r="AB151" s="40"/>
       <c r="AC151" s="40"/>
       <c r="AD151" s="40"/>
     </row>
-    <row r="152" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="152" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z152" s="40"/>
       <c r="AA152" s="40"/>
       <c r="AB152" s="40"/>
       <c r="AC152" s="40"/>
       <c r="AD152" s="40"/>
     </row>
-    <row r="153" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="153" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z153" s="40"/>
       <c r="AA153" s="40"/>
       <c r="AB153" s="40"/>
       <c r="AC153" s="40"/>
       <c r="AD153" s="40"/>
     </row>
-    <row r="154" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="154" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z154" s="40"/>
       <c r="AA154" s="40"/>
       <c r="AB154" s="40"/>
       <c r="AC154" s="40"/>
       <c r="AD154" s="40"/>
     </row>
-    <row r="155" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="155" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z155" s="40"/>
       <c r="AA155" s="40"/>
       <c r="AB155" s="40"/>
       <c r="AC155" s="40"/>
       <c r="AD155" s="40"/>
     </row>
-    <row r="156" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="156" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z156" s="40"/>
       <c r="AA156" s="40"/>
       <c r="AB156" s="40"/>
       <c r="AC156" s="40"/>
       <c r="AD156" s="40"/>
     </row>
-    <row r="157" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="157" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z157" s="40"/>
       <c r="AA157" s="40"/>
       <c r="AB157" s="40"/>
       <c r="AC157" s="40"/>
       <c r="AD157" s="40"/>
     </row>
-    <row r="158" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="158" spans="26:30" x14ac:dyDescent="0.35">
       <c r="AC158" s="40"/>
       <c r="AD158" s="40"/>
     </row>
-    <row r="159" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="159" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z159" s="40"/>
       <c r="AA159" s="40"/>
       <c r="AB159" s="40"/>
       <c r="AC159" s="40"/>
       <c r="AD159" s="40"/>
     </row>
-    <row r="160" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="160" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z160" s="40"/>
       <c r="AA160" s="40"/>
       <c r="AB160" s="40"/>
       <c r="AC160" s="40"/>
       <c r="AD160" s="40"/>
     </row>
-    <row r="161" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="161" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z161" s="40"/>
       <c r="AA161" s="40"/>
       <c r="AB161" s="40"/>
     </row>
-    <row r="162" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="162" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z162" s="40"/>
       <c r="AA162" s="40"/>
       <c r="AB162" s="40"/>
       <c r="AC162" s="40"/>
       <c r="AD162" s="40"/>
     </row>
-    <row r="163" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="163" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z163" s="40"/>
       <c r="AA163" s="40"/>
       <c r="AB163" s="40"/>
       <c r="AC163" s="40"/>
       <c r="AD163" s="40"/>
     </row>
-    <row r="164" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="164" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z164" s="40"/>
       <c r="AA164" s="40"/>
       <c r="AB164" s="40"/>
       <c r="AC164" s="40"/>
     </row>
-    <row r="165" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="165" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z165" s="40"/>
       <c r="AA165" s="40"/>
       <c r="AB165" s="40"/>
       <c r="AC165" s="40"/>
       <c r="AD165" s="40"/>
     </row>
-    <row r="166" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="166" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z166" s="40"/>
       <c r="AA166" s="40"/>
       <c r="AB166" s="40"/>
       <c r="AC166" s="40"/>
       <c r="AD166" s="40"/>
     </row>
-    <row r="167" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="167" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z167" s="40"/>
       <c r="AA167" s="40"/>
       <c r="AB167" s="40"/>
       <c r="AC167" s="40"/>
       <c r="AD167" s="40"/>
     </row>
-    <row r="168" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="168" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z168" s="40"/>
       <c r="AA168" s="40"/>
       <c r="AB168" s="40"/>
       <c r="AC168" s="40"/>
       <c r="AD168" s="40"/>
     </row>
-    <row r="169" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="169" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z169" s="40"/>
       <c r="AA169" s="40"/>
       <c r="AB169" s="40"/>
       <c r="AC169" s="40"/>
       <c r="AD169" s="40"/>
     </row>
-    <row r="170" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="170" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z170" s="40"/>
       <c r="AA170" s="40"/>
       <c r="AB170" s="40"/>
       <c r="AC170" s="40"/>
       <c r="AD170" s="40"/>
     </row>
-    <row r="171" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="171" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z171" s="40"/>
       <c r="AA171" s="40"/>
       <c r="AB171" s="40"/>
       <c r="AC171" s="40"/>
       <c r="AD171" s="40"/>
     </row>
-    <row r="172" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="172" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z172" s="40"/>
       <c r="AA172" s="40"/>
       <c r="AB172" s="40"/>
       <c r="AC172" s="40"/>
       <c r="AD172" s="40"/>
     </row>
-    <row r="173" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="173" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z173" s="40"/>
       <c r="AA173" s="40"/>
       <c r="AB173" s="40"/>
       <c r="AC173" s="40"/>
       <c r="AD173" s="40"/>
     </row>
-    <row r="174" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="174" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z174" s="40"/>
       <c r="AA174" s="40"/>
       <c r="AB174" s="40"/>
       <c r="AC174" s="40"/>
       <c r="AD174" s="40"/>
     </row>
-    <row r="175" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="175" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z175" s="40"/>
       <c r="AA175" s="40"/>
       <c r="AB175" s="40"/>
       <c r="AC175" s="40"/>
       <c r="AD175" s="40"/>
     </row>
-    <row r="176" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="176" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z176" s="40"/>
       <c r="AA176" s="40"/>
       <c r="AB176" s="40"/>
       <c r="AC176" s="40"/>
       <c r="AD176" s="40"/>
     </row>
-    <row r="177" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="177" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z177" s="40"/>
       <c r="AA177" s="40"/>
       <c r="AB177" s="40"/>
       <c r="AC177" s="40"/>
       <c r="AD177" s="40"/>
     </row>
-    <row r="178" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="178" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z178" s="40"/>
       <c r="AA178" s="40"/>
       <c r="AB178" s="40"/>
       <c r="AC178" s="40"/>
       <c r="AD178" s="40"/>
     </row>
-    <row r="179" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="179" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z179" s="40"/>
       <c r="AA179" s="40"/>
       <c r="AB179" s="40"/>
       <c r="AC179" s="40"/>
       <c r="AD179" s="40"/>
     </row>
-    <row r="180" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="180" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z180" s="40"/>
       <c r="AA180" s="40"/>
       <c r="AB180" s="40"/>
       <c r="AC180" s="40"/>
       <c r="AD180" s="40"/>
     </row>
-    <row r="181" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="181" spans="26:30" x14ac:dyDescent="0.35">
       <c r="AC181" s="40"/>
       <c r="AD181" s="40"/>
     </row>
-    <row r="182" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="182" spans="26:30" x14ac:dyDescent="0.35">
       <c r="AC182" s="40"/>
       <c r="AD182" s="40"/>
     </row>
-    <row r="183" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="183" spans="26:30" x14ac:dyDescent="0.35">
       <c r="AC183" s="40"/>
       <c r="AD183" s="40"/>
     </row>
-    <row r="218" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="16.55" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="220" ht="16.55" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:AD159">
     <sortCondition ref="B1:B159" customList="1,1A,2,2A,3,3a,4,4a,5,5a,6,6a,7,7a,8,8a,9,9a,10,10a,11,11a,12,12a,13,13a,14,14a,15,15a,16,16a,17,17a,18,18a,19,19a,20,20a,21,21a,22,22a,23,23a,24,24a,25,25a,26,26a,27,27a,28,28a,29,29a,30,30a,31,31a,32,32a,33,33a,34,34a,35,35a,36,36a,37,37a,38,38a,39,39a,40,40a,41,41a,42,42a,43,43a,44,44a,45,45a,46,46a,47,47a,48,48a,49,49a,50,50a,51,51a,52,52a,53,53a,54,54a,55,55a,56,56a,57,57a,58,58a,59,59a,60,60a,61,61a,62,62a,63,63a,64,64a,65,65a,66,66a,67,67a,68,68a,69,69a,70,70a,71,71a,72,72a,73,73a,74,74a,75,75a,76,76a,77,77a,78,78a,79,79a,80,80a,81,81a,82,82a,83,83a,84,84a,85,85a,86,86a,87,87a,88,88a,89,89a,90,90a,91,91a,92,92a,93,93a,94,94a,95,95a,96,96a,97,97a,98,98a,99,99a,100,100a,101,101a,102,102a,103,103a,104,104a,105,105a,106,106a,107,107a,108,108a,109,109a,110,110a,111,111a,112,112a,113,113a,114,114a,115,115a,116,116a,117,117a,118,118a,119,119a,120,120a,121,121a,122,122a,123,123a,124,124a,125,125a,126,126a,127,127a,128,128a,129,129a,130,130a,131,131a,132,132a,133,133a,134,134a,135,135a,136,136a,137,137a,138,138a,139,139a,140,140a,141,141a,142,142a,143,143a,144,144a,145,145a,146,146a,147,147a,148,148a,149,149a,150,150a,151,151a,152,152a,153,153a,154,154a,155,155a,156,156a,157,157a,158,158a,159,159a,160,160a,161,161a,162,162a,163,163a,164,164a,165,165a,166,166a,167,167a,168,168a,169,169a,170,170a,171,171a,172,172a,173,173a,174,174a,175,175a,176,176a,177,177a,178,178a,179,179a,180,180a,181,181a,182,182a,183,183a,184,184a,185,185a,186,186a,187,187a,188,188a,189,189a,190,190a,191,191a,192,192a,193,193a,194,194a,195,195a,196,196a,197,197a,198,198a,199,199a,200,200a,201,201a,202,202a,203,203a,204,204a,205,205a,206,206a"/>
@@ -61358,56 +61069,56 @@
       <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="7" max="7" width="15.875" customWidth="1"/>
-    <col min="12" max="12" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="7" max="7" width="15.90625" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="11.875" customWidth="1"/>
+    <col min="16" max="16" width="11.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="38.299999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
-      <c r="D2" s="175" t="s">
+      <c r="D2" s="173" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175" t="s">
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="178" t="s">
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="175" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="178" t="s">
+      <c r="M2" s="175" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="178" t="s">
+      <c r="N2" s="175" t="s">
         <v>72</v>
       </c>
       <c r="O2" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="P2" s="176" t="s">
+      <c r="P2" s="179" t="s">
         <v>74</v>
       </c>
-      <c r="Q2" s="177" t="s">
+      <c r="Q2" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="R2" s="175" t="s">
+      <c r="R2" s="173" t="s">
         <v>57</v>
       </c>
-      <c r="S2" s="175"/>
-      <c r="T2" s="175"/>
-      <c r="U2" s="175"/>
+      <c r="S2" s="173"/>
+      <c r="T2" s="173"/>
+      <c r="U2" s="173"/>
     </row>
-    <row r="3" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="41" t="s">
         <v>64</v>
       </c>
@@ -61438,14 +61149,14 @@
       <c r="K3" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="179"/>
-      <c r="M3" s="179"/>
-      <c r="N3" s="179"/>
+      <c r="L3" s="176"/>
+      <c r="M3" s="176"/>
+      <c r="N3" s="176"/>
       <c r="O3" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="P3" s="176"/>
-      <c r="Q3" s="177"/>
+      <c r="P3" s="179"/>
+      <c r="Q3" s="174"/>
       <c r="R3" s="42" t="s">
         <v>59</v>
       </c>
@@ -61459,7 +61170,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="88"/>
       <c r="B4" s="88">
         <v>1</v>
@@ -61536,7 +61247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="92"/>
       <c r="B5" s="92">
         <v>2</v>
@@ -61613,7 +61324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="88"/>
       <c r="B6" s="88">
         <v>3</v>
@@ -61690,7 +61401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="92"/>
       <c r="B7" s="92">
         <v>4</v>
@@ -61767,7 +61478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="88"/>
       <c r="B8" s="88">
         <v>5</v>
@@ -61844,7 +61555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="92"/>
       <c r="B9" s="92">
         <v>6</v>
@@ -61921,7 +61632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="88"/>
       <c r="B10" s="88">
         <v>7</v>
@@ -61996,7 +61707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="92"/>
       <c r="B11" s="92">
         <v>8</v>
@@ -62073,7 +61784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="G12" s="112"/>
       <c r="J12" s="45" t="s">
         <v>69</v>
@@ -62097,11 +61808,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="173" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B13" s="177" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="173"/>
+      <c r="C13" s="177"/>
       <c r="D13" s="113">
         <f>SUM(D4:D11)</f>
         <v>0</v>
@@ -62115,24 +61826,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="174" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B14" s="178" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="174"/>
+      <c r="C14" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="P2:P3"/>
     <mergeCell ref="R2:U2"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="P2:P3"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
